--- a/project/handleCpdcData/downCase/out/西安.xlsx
+++ b/project/handleCpdcData/downCase/out/西安.xlsx
@@ -379,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:DS21"/>
+  <dimension ref="A1:GI21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,327 +431,531 @@
         <v>病程(月)</v>
       </c>
       <c r="P1" t="str">
+        <v>诱因</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>有无症状</v>
+      </c>
+      <c r="R1" t="str">
+        <v>腹痛</v>
+      </c>
+      <c r="S1" t="str">
+        <v>腹胀</v>
+      </c>
+      <c r="T1" t="str">
+        <v>黄疸</v>
+      </c>
+      <c r="U1" t="str">
+        <v>恶心</v>
+      </c>
+      <c r="V1" t="str">
+        <v>呕吐</v>
+      </c>
+      <c r="W1" t="str">
+        <v>腰背痛</v>
+      </c>
+      <c r="X1" t="str">
+        <v>腹泻</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>消瘦</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>低血糖</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>消化系统溃疡</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>糖尿病史</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>慢性胰腺炎病史</v>
+      </c>
+      <c r="AD1" t="str">
+        <v>胆囊炎病史</v>
+      </c>
+      <c r="AE1" t="str">
+        <v>吸烟史</v>
+      </c>
+      <c r="AF1" t="str">
         <v>吸烟史(年 )</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="AG1" t="str">
+        <v>饮酒史</v>
+      </c>
+      <c r="AH1" t="str">
         <v>饮酒史(年)</v>
       </c>
-      <c r="R1" t="str">
+      <c r="AI1" t="str">
         <v>其他个人史</v>
       </c>
-      <c r="S1" t="str">
+      <c r="AJ1" t="str">
+        <v>胰腺癌家族史</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>肿瘤家族史</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>浅表淋巴结肿大</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>身高(cm)</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>体重(kg)</v>
+      </c>
+      <c r="AO1" t="str">
         <v>BMI</v>
       </c>
-      <c r="T1" t="str">
+      <c r="AP1" t="str">
         <v>NRS 2002评分(分)</v>
       </c>
-      <c r="U1" t="str">
+      <c r="AQ1" t="str">
+        <v>体征</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>直肠指诊异常</v>
+      </c>
+      <c r="AS1" t="str">
         <v>肿瘤大小-长(cm)</v>
       </c>
-      <c r="V1" t="str">
+      <c r="AT1" t="str">
         <v>肿瘤大小-宽(cm)</v>
       </c>
-      <c r="W1" t="str">
+      <c r="AU1" t="str">
         <v>肿瘤大小-高(cm)</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AV1" t="str">
+        <v>肿瘤位置</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>强化情况</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>SMA侵犯</v>
+      </c>
+      <c r="AY1" t="str">
+        <v>有无淋巴结肿大</v>
+      </c>
+      <c r="AZ1" t="str">
+        <v>SMV/PV侵犯</v>
+      </c>
+      <c r="BA1" t="str">
+        <v>肝转移</v>
+      </c>
+      <c r="BB1" t="str">
+        <v>良恶性倾向</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>术前活检</v>
+      </c>
+      <c r="BD1" t="str">
         <v>ALT(U/L)</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="BE1" t="str">
         <v>TB(μmol/L)</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="BF1" t="str">
         <v>DB(μmol/L)</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="BG1" t="str">
         <v>GGT(U/L)</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="BH1" t="str">
+        <v>ALP(U/L)</v>
+      </c>
+      <c r="BI1" t="str">
+        <v>AST(U/L)</v>
+      </c>
+      <c r="BJ1" t="str">
         <v>CA19-9(U/ml)</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="BK1" t="str">
         <v>CEA(ng/ml)</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="BL1" t="str">
         <v>CA125(U/ml)</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="BM1" t="str">
+        <v>减黄</v>
+      </c>
+      <c r="BN1" t="str">
+        <v>营养支持</v>
+      </c>
+      <c r="BO1" t="str">
+        <v>是否放化疗</v>
+      </c>
+      <c r="BP1" t="str">
+        <v>是否更改治疗方案</v>
+      </c>
+      <c r="BQ1" t="str">
+        <v>术前可切除性评估</v>
+      </c>
+      <c r="BR1" t="str">
         <v>术前诊断</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="BS1" t="str">
+        <v>手术名称</v>
+      </c>
+      <c r="BT1" t="str">
+        <v>手术方式</v>
+      </c>
+      <c r="BU1" t="str">
+        <v>血管受累</v>
+      </c>
+      <c r="BV1" t="str">
+        <v>是否联合血管切除</v>
+      </c>
+      <c r="BW1" t="str">
+        <v>术中留取新鲜标本</v>
+      </c>
+      <c r="BX1" t="str">
         <v>胰瘘风险评分</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="BY1" t="str">
         <v>胰腺断端处理方法</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="BZ1" t="str">
         <v>手术日期</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="CA1" t="str">
         <v>手术时长(分钟)</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="CB1" t="str">
         <v>出血量(ml)</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="CC1" t="str">
+        <v>是否输血</v>
+      </c>
+      <c r="CD1" t="str">
         <v>红细胞(U)</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="CE1" t="str">
         <v>血浆(ml)</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="CF1" t="str">
+        <v>肿瘤部位</v>
+      </c>
+      <c r="CG1" t="str">
+        <v>术中放疗</v>
+      </c>
+      <c r="CH1" t="str">
+        <v>麻醉方式</v>
+      </c>
+      <c r="CI1" t="str">
+        <v>空肠造瘘</v>
+      </c>
+      <c r="CJ1" t="str">
+        <v>胆管支架</v>
+      </c>
+      <c r="CK1" t="str">
+        <v>手术图片/录像</v>
+      </c>
+      <c r="CL1" t="str">
         <v>术后住院天数</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="CM1" t="str">
         <v>术后排气(天)</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="CN1" t="str">
         <v>术后进水(天)</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="CO1" t="str">
+        <v>是否发生胰漏</v>
+      </c>
+      <c r="CP1" t="str">
+        <v>是否发生胆瘘</v>
+      </c>
+      <c r="CQ1" t="str">
+        <v>是否发生乳糜漏</v>
+      </c>
+      <c r="CR1" t="str">
+        <v>是否发生术后出血</v>
+      </c>
+      <c r="CS1" t="str">
+        <v>是否发生腹腔感染</v>
+      </c>
+      <c r="CT1" t="str">
+        <v>是否发生胃瘫</v>
+      </c>
+      <c r="CU1" t="str">
+        <v>吻合口梗阻</v>
+      </c>
+      <c r="CV1" t="str">
+        <v>栓塞</v>
+      </c>
+      <c r="CW1" t="str">
+        <v>并发症CD评分</v>
+      </c>
+      <c r="CX1" t="str">
+        <v>二次手术</v>
+      </c>
+      <c r="CY1" t="str">
+        <v>介入治疗</v>
+      </c>
+      <c r="CZ1" t="str">
+        <v>是否行术后输血</v>
+      </c>
+      <c r="DA1" t="str">
+        <v>是否术后抗生素</v>
+      </c>
+      <c r="DB1" t="str">
         <v>药物/方案</v>
       </c>
-      <c r="AQ1" t="str">
+      <c r="DC1" t="str">
         <v>用法</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="DD1" t="str">
         <v>天数</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="DE1" t="str">
+        <v>联合用药</v>
+      </c>
+      <c r="DF1" t="str">
+        <v>ICU治疗</v>
+      </c>
+      <c r="DG1" t="str">
+        <v>院内死亡</v>
+      </c>
+      <c r="DH1" t="str">
+        <v>带管出院</v>
+      </c>
+      <c r="DI1" t="str">
         <v>诊断名称</v>
       </c>
-      <c r="AT1" t="str">
+      <c r="DJ1" t="str">
+        <v>分化</v>
+      </c>
+      <c r="DK1" t="str">
+        <v>包膜侵犯</v>
+      </c>
+      <c r="DL1" t="str">
+        <v>脉管侵犯</v>
+      </c>
+      <c r="DM1" t="str">
+        <v>围神经浸润</v>
+      </c>
+      <c r="DN1" t="str">
+        <v>脂肪浸润</v>
+      </c>
+      <c r="DO1" t="str">
+        <v>T</v>
+      </c>
+      <c r="DP1" t="str">
         <v>N：LN阳性个数</v>
       </c>
-      <c r="AU1" t="str">
+      <c r="DQ1" t="str">
         <v>N：LN检测总数</v>
       </c>
-      <c r="AV1" t="str">
+      <c r="DR1" t="str">
+        <v>M：腹腔转移</v>
+      </c>
+      <c r="DS1" t="str">
+        <v>胰腺断端切缘</v>
+      </c>
+      <c r="DT1" t="str">
+        <v>病理诊断结果</v>
+      </c>
+      <c r="DU1" t="str">
+        <v>Ki-67</v>
+      </c>
+      <c r="DV1" t="str">
+        <v>CK7</v>
+      </c>
+      <c r="DW1" t="str">
+        <v>CgA</v>
+      </c>
+      <c r="DX1" t="str">
         <v>手术费用(元)</v>
       </c>
-      <c r="AW1" t="str">
+      <c r="DY1" t="str">
         <v>总费用(元)</v>
       </c>
-      <c r="AX1" t="str">
+      <c r="DZ1" t="str">
+        <v>是否化疗</v>
+      </c>
+      <c r="EA1" t="str">
+        <v>是否放疗</v>
+      </c>
+      <c r="EB1" t="str">
+        <v>是否生物治疗</v>
+      </c>
+      <c r="EC1" t="str">
         <v>其他后续计划治疗方案</v>
       </c>
-      <c r="AY1" t="str">
-        <v>ALP(U/L)</v>
-      </c>
-      <c r="AZ1" t="str">
-        <v>AST(U/L)</v>
-      </c>
-      <c r="BA1" t="str">
-        <v>身高(cm)</v>
-      </c>
-      <c r="BB1" t="str">
-        <v>体重(kg)</v>
-      </c>
-      <c r="BC1" t="str">
-        <v>肿瘤位置</v>
-      </c>
-      <c r="BD1" t="str">
-        <v>良恶性倾向</v>
-      </c>
-      <c r="BE1" t="str">
-        <v>术前可切除性评估</v>
-      </c>
-      <c r="BF1" t="str">
-        <v>手术名称</v>
-      </c>
-      <c r="BG1" t="str">
-        <v>手术方式</v>
-      </c>
-      <c r="BH1" t="str">
-        <v>肿瘤部位</v>
-      </c>
-      <c r="BI1" t="str">
-        <v>麻醉方式</v>
-      </c>
-      <c r="BJ1" t="str">
-        <v>并发症CD评分</v>
-      </c>
-      <c r="BK1" t="str">
-        <v>分化</v>
-      </c>
-      <c r="BL1" t="str">
-        <v>T</v>
-      </c>
-      <c r="BM1" t="str">
-        <v>胰腺断端切缘</v>
-      </c>
-      <c r="BN1" t="str">
-        <v>病理诊断结果</v>
-      </c>
-      <c r="BO1" t="str">
-        <v>Ki-67</v>
-      </c>
-      <c r="BP1" t="str">
-        <v>CK7</v>
-      </c>
-      <c r="BQ1" t="str">
-        <v>CgA</v>
-      </c>
-      <c r="BR1" t="str">
+      <c r="ED1" t="str">
+        <v>回声情况</v>
+      </c>
+      <c r="EE1" t="str">
+        <v>血供情况</v>
+      </c>
+      <c r="EF1" t="str">
         <v>血管名称</v>
       </c>
-      <c r="BS1" t="str">
+      <c r="EG1" t="str">
+        <v>人工材料缝合</v>
+      </c>
+      <c r="EH1" t="str">
         <v>药物名称（通用名）</v>
       </c>
-      <c r="BT1" t="str">
+      <c r="EI1" t="str">
         <v>药物名称（商品名）</v>
       </c>
-      <c r="BU1" t="str">
+      <c r="EJ1" t="str">
         <v>剂量</v>
       </c>
-      <c r="BV1" t="str">
+      <c r="EK1" t="str">
         <v>周期/疗程</v>
       </c>
-      <c r="BW1" t="str">
-        <v>回声情况</v>
-      </c>
-      <c r="BX1" t="str">
-        <v>血供情况</v>
-      </c>
-      <c r="BY1" t="str">
+      <c r="EL1" t="str">
         <v>使用方法</v>
       </c>
-      <c r="BZ1" t="str">
+      <c r="EM1" t="str">
         <v>糖尿病史（时长）(月)</v>
       </c>
-      <c r="CA1" t="str">
+      <c r="EN1" t="str">
         <v>每日吸烟(根)</v>
       </c>
-      <c r="CB1" t="str">
+      <c r="EO1" t="str">
         <v>每日饮酒(两/天)</v>
       </c>
-      <c r="CC1" t="str">
+      <c r="EP1" t="str">
         <v>手术备注</v>
       </c>
-      <c r="CD1" t="str">
+      <c r="EQ1" t="str">
         <v>胰漏分级</v>
       </c>
-      <c r="CE1" t="str">
+      <c r="ER1" t="str">
         <v>治疗方式</v>
       </c>
-      <c r="CF1" t="str">
+      <c r="ES1" t="str">
         <v>其他既往史</v>
       </c>
-      <c r="CG1" t="str">
+      <c r="ET1" t="str">
         <v>胰管宽度(mm)</v>
       </c>
-      <c r="CH1" t="str">
+      <c r="EU1" t="str">
         <v>胆总管宽度(cm)</v>
       </c>
-      <c r="CI1" t="str">
+      <c r="EV1" t="str">
         <v>胰肠吻合方式</v>
       </c>
-      <c r="CJ1" t="str">
+      <c r="EW1" t="str">
         <v>其他并发症</v>
       </c>
-      <c r="CK1" t="str">
+      <c r="EX1" t="str">
         <v>T：肿瘤侵袭深度</v>
       </c>
-      <c r="CL1" t="str">
+      <c r="EY1" t="str">
+        <v>胆管断端切缘</v>
+      </c>
+      <c r="EZ1" t="str">
+        <v>十二指肠/胃断端切缘</v>
+      </c>
+      <c r="FA1" t="str">
         <v>术前检查费用(元)</v>
       </c>
-      <c r="CM1" t="str">
+      <c r="FB1" t="str">
         <v>术前放化疗费用(元)</v>
       </c>
-      <c r="CN1" t="str">
+      <c r="FC1" t="str">
         <v>术后治疗费用(元)</v>
       </c>
-      <c r="CO1" t="str">
-        <v>胆管断端切缘</v>
-      </c>
-      <c r="CP1" t="str">
-        <v>十二指肠/胃断端切缘</v>
-      </c>
-      <c r="CQ1" t="str">
+      <c r="FD1" t="str">
         <v>其他症状</v>
       </c>
-      <c r="CR1" t="str">
+      <c r="FE1" t="str">
         <v>腹膜后切缘</v>
       </c>
-      <c r="CS1" t="str">
+      <c r="FF1" t="str">
+        <v>CD56</v>
+      </c>
+      <c r="FG1" t="str">
         <v>其他</v>
       </c>
-      <c r="CT1" t="str">
-        <v>CD56</v>
-      </c>
-      <c r="CU1" t="str">
+      <c r="FH1" t="str">
         <v>肿大淋巴结部位</v>
       </c>
-      <c r="CV1" t="str">
+      <c r="FI1" t="str">
+        <v>减黄方式</v>
+      </c>
+      <c r="FJ1" t="str">
         <v>减黄天数(天)</v>
       </c>
-      <c r="CW1" t="str">
+      <c r="FK1" t="str">
         <v>减黄前TB(μmol/L)</v>
       </c>
-      <c r="CX1" t="str">
+      <c r="FL1" t="str">
         <v>减黄前DB(μmol/L)</v>
       </c>
-      <c r="CY1" t="str">
+      <c r="FM1" t="str">
         <v>减黄前GGT(U/L)</v>
       </c>
-      <c r="CZ1" t="str">
+      <c r="FN1" t="str">
         <v>减黄后TB(μmol/L)</v>
       </c>
-      <c r="DA1" t="str">
+      <c r="FO1" t="str">
         <v>减黄后DB(μmol/L)</v>
       </c>
-      <c r="DB1" t="str">
+      <c r="FP1" t="str">
         <v>减黄后GGT(U/L)</v>
       </c>
-      <c r="DC1" t="str">
-        <v>减黄方式</v>
-      </c>
-      <c r="DD1" t="str">
+      <c r="FQ1" t="str">
+        <v>包块</v>
+      </c>
+      <c r="FR1" t="str">
+        <v>压痛</v>
+      </c>
+      <c r="FS1" t="str">
+        <v>压痛位置</v>
+      </c>
+      <c r="FT1" t="str">
+        <v>腹水</v>
+      </c>
+      <c r="FU1" t="str">
         <v>CA72-4(U/ml)</v>
       </c>
-      <c r="DE1" t="str">
+      <c r="FV1" t="str">
         <v>胃管留置天数(天)</v>
       </c>
-      <c r="DF1" t="str">
-        <v>压痛位置</v>
-      </c>
-      <c r="DG1" t="str">
+      <c r="FW1" t="str">
         <v>AMY(U/L)</v>
       </c>
-      <c r="DH1" t="str">
+      <c r="FX1" t="str">
         <v>CA242(U/ml)</v>
       </c>
-      <c r="DI1" t="str">
+      <c r="FY1" t="str">
         <v>SMA/SMV沟槽切缘</v>
       </c>
-      <c r="DJ1" t="str">
+      <c r="FZ1" t="str">
         <v>AFP</v>
       </c>
-      <c r="DK1" t="str">
+      <c r="GA1" t="str">
         <v>Hepatocyte</v>
       </c>
-      <c r="DL1" t="str">
+      <c r="GB1" t="str">
         <v>CK20</v>
       </c>
-      <c r="DM1" t="str">
+      <c r="GC1" t="str">
         <v>TTF1</v>
       </c>
-      <c r="DN1" t="str">
+      <c r="GD1" t="str">
         <v>CDX2</v>
       </c>
-      <c r="DO1" t="str">
+      <c r="GE1" t="str">
         <v>CK</v>
       </c>
-      <c r="DP1" t="str">
+      <c r="GF1" t="str">
         <v>SYN</v>
       </c>
-      <c r="DQ1" t="str">
+      <c r="GG1" t="str">
         <v>肿大淋巴结数量</v>
       </c>
-      <c r="DR1" t="str">
+      <c r="GH1" t="str">
         <v>穿刺方法</v>
       </c>
-      <c r="DS1" t="str">
+      <c r="GI1" t="str">
         <v>病理结果</v>
       </c>
     </row>
@@ -802,166 +1006,358 @@
         <v>0.5</v>
       </c>
       <c r="P2" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>是</v>
+      </c>
+      <c r="R2" t="str">
+        <v>是</v>
+      </c>
+      <c r="S2" t="str">
+        <v>否</v>
+      </c>
+      <c r="T2" t="str">
+        <v>否</v>
+      </c>
+      <c r="U2" t="str">
+        <v>否</v>
+      </c>
+      <c r="V2" t="str">
+        <v>否</v>
+      </c>
+      <c r="W2" t="str">
+        <v>是</v>
+      </c>
+      <c r="X2" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y2" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z2" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA2" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD2" t="str">
+        <v>有</v>
+      </c>
+      <c r="AE2" t="str">
+        <v>是</v>
+      </c>
+      <c r="AF2" t="str">
         <v>30</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="AG2" t="str">
+        <v>是</v>
+      </c>
+      <c r="AH2" t="str">
         <v>30</v>
       </c>
-      <c r="R2" t="str">
+      <c r="AI2" t="str">
         <v>已戒烟</v>
       </c>
-      <c r="S2" t="str">
+      <c r="AJ2" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK2" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM2" t="str">
+        <v>169</v>
+      </c>
+      <c r="AN2" t="str">
+        <v>61</v>
+      </c>
+      <c r="AO2" t="str">
         <v>21.36</v>
       </c>
-      <c r="T2" t="str">
+      <c r="AP2" t="str">
         <v>2</v>
       </c>
-      <c r="U2" t="str">
+      <c r="AQ2" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS2" t="str">
         <v>5</v>
       </c>
-      <c r="V2" t="str">
+      <c r="AT2" t="str">
         <v>5</v>
       </c>
-      <c r="W2" t="str">
+      <c r="AU2" t="str">
         <v>5</v>
       </c>
-      <c r="X2" t="str">
+      <c r="AV2" t="str">
+        <v>胰尾</v>
+      </c>
+      <c r="AW2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY2" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ2" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB2" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC2" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD2" t="str">
         <v>20</v>
       </c>
-      <c r="Y2" t="str">
+      <c r="BE2" t="str">
         <v>9.3</v>
       </c>
-      <c r="Z2" t="str">
+      <c r="BF2" t="str">
         <v>3.9</v>
       </c>
-      <c r="AA2" t="str">
+      <c r="BG2" t="str">
         <v>15</v>
       </c>
-      <c r="AB2" t="str">
+      <c r="BH2" t="str">
+        <v>136</v>
+      </c>
+      <c r="BI2" t="str">
+        <v>15</v>
+      </c>
+      <c r="BJ2" t="str">
         <v>228.4</v>
       </c>
-      <c r="AC2" t="str">
+      <c r="BK2" t="str">
         <v>1.33</v>
       </c>
-      <c r="AD2" t="str">
+      <c r="BL2" t="str">
         <v>228.4</v>
       </c>
-      <c r="AE2" t="str">
+      <c r="BM2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ2" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR2" t="str">
         <v>胰尾肿瘤、胆囊结石伴胆囊炎</v>
       </c>
-      <c r="AF2" t="str">
+      <c r="BS2" t="str">
+        <v>胰体尾脾切除术</v>
+      </c>
+      <c r="BT2" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV2" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW2" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX2" t="str">
         <v>7</v>
       </c>
-      <c r="AG2" t="str">
+      <c r="BY2" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH2" t="str">
+      <c r="BZ2" t="str">
         <v>2016-12-28</v>
       </c>
-      <c r="AI2" t="str">
+      <c r="CA2" t="str">
         <v>250</v>
       </c>
-      <c r="AJ2" t="str">
+      <c r="CB2" t="str">
         <v>2600</v>
       </c>
-      <c r="AK2" t="str">
+      <c r="CC2" t="str">
+        <v>是</v>
+      </c>
+      <c r="CD2" t="str">
         <v>2</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="CE2" t="str">
         <v>780</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="CF2" t="str">
+        <v>胰体尾</v>
+      </c>
+      <c r="CG2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH2" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK2" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL2" t="str">
         <v>11</v>
       </c>
-      <c r="AN2" t="str">
+      <c r="CM2" t="str">
         <v>6</v>
       </c>
-      <c r="AO2" t="str">
+      <c r="CN2" t="str">
         <v>6</v>
       </c>
-      <c r="AP2" t="str">
+      <c r="CO2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS2" t="str">
+        <v>是</v>
+      </c>
+      <c r="CT2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW2" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY2" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ2" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA2" t="str">
+        <v>是</v>
+      </c>
+      <c r="DB2" t="str">
         <v>头孢哌酮钠舒巴坦钠</v>
       </c>
-      <c r="AQ2" t="str">
+      <c r="DC2" t="str">
         <v>静脉滴注</v>
       </c>
-      <c r="AR2" t="str">
+      <c r="DD2" t="str">
         <v>6</v>
       </c>
-      <c r="AS2" t="str">
+      <c r="DE2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI2" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT2" t="str">
+      <c r="DJ2" t="str">
+        <v>低</v>
+      </c>
+      <c r="DK2" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DN2" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO2" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP2" t="str">
         <v>0</v>
       </c>
-      <c r="AU2" t="str">
+      <c r="DQ2" t="str">
         <v>4</v>
       </c>
-      <c r="AV2" t="str">
+      <c r="DR2" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS2" t="str">
+        <v>阳性</v>
+      </c>
+      <c r="DT2" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DU2" t="str">
+        <v>阳性</v>
+      </c>
+      <c r="DV2" t="str">
+        <v>阳性</v>
+      </c>
+      <c r="DW2" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DX2" t="str">
         <v>4984</v>
       </c>
-      <c r="AW2" t="str">
+      <c r="DY2" t="str">
         <v>56690.92</v>
       </c>
-      <c r="AX2" t="str">
+      <c r="DZ2" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA2" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB2" t="str">
+        <v>否</v>
+      </c>
+      <c r="EC2" t="str">
         <v>未做后续治疗。</v>
-      </c>
-      <c r="AY2" t="str">
-        <v>136</v>
-      </c>
-      <c r="AZ2" t="str">
-        <v>15</v>
-      </c>
-      <c r="BA2" t="str">
-        <v>169</v>
-      </c>
-      <c r="BB2" t="str">
-        <v>61</v>
-      </c>
-      <c r="BC2" t="str">
-        <v>胰尾</v>
-      </c>
-      <c r="BD2" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE2" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF2" t="str">
-        <v>胰体尾脾切除术</v>
-      </c>
-      <c r="BG2" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH2" t="str">
-        <v>胰体尾</v>
-      </c>
-      <c r="BI2" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ2" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK2" t="str">
-        <v>低</v>
-      </c>
-      <c r="BL2" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM2" t="str">
-        <v>阳性</v>
-      </c>
-      <c r="BN2" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BO2" t="str">
-        <v>阳性</v>
-      </c>
-      <c r="BP2" t="str">
-        <v>阳性</v>
-      </c>
-      <c r="BQ2" t="str">
-        <v>阴性</v>
       </c>
     </row>
     <row r="3">
@@ -1010,151 +1406,343 @@
       <c r="O3" t="str">
         <v>2</v>
       </c>
+      <c r="P3" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>是</v>
+      </c>
+      <c r="R3" t="str">
+        <v>是</v>
+      </c>
       <c r="S3" t="str">
+        <v>是</v>
+      </c>
+      <c r="T3" t="str">
+        <v>否</v>
+      </c>
+      <c r="U3" t="str">
+        <v>否</v>
+      </c>
+      <c r="V3" t="str">
+        <v>否</v>
+      </c>
+      <c r="W3" t="str">
+        <v>否</v>
+      </c>
+      <c r="X3" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y3" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM3" t="str">
+        <v>152</v>
+      </c>
+      <c r="AN3" t="str">
+        <v>52</v>
+      </c>
+      <c r="AO3" t="str">
         <v>22.51</v>
       </c>
-      <c r="T3" t="str">
+      <c r="AP3" t="str">
         <v>1</v>
       </c>
-      <c r="U3" t="str">
+      <c r="AQ3" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS3" t="str">
         <v>4.5</v>
       </c>
-      <c r="V3" t="str">
+      <c r="AT3" t="str">
         <v>2</v>
       </c>
-      <c r="W3" t="str">
+      <c r="AU3" t="str">
         <v>3</v>
       </c>
-      <c r="X3" t="str">
+      <c r="AV3" t="str">
+        <v>胰体</v>
+      </c>
+      <c r="AW3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY3" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ3" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA3" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB3" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC3" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD3" t="str">
         <v>9</v>
       </c>
-      <c r="Y3" t="str">
+      <c r="BE3" t="str">
         <v>9.7</v>
       </c>
-      <c r="Z3" t="str">
+      <c r="BF3" t="str">
         <v>3.6</v>
       </c>
-      <c r="AA3" t="str">
+      <c r="BG3" t="str">
         <v>31</v>
       </c>
-      <c r="AB3" t="str">
+      <c r="BH3" t="str">
+        <v>88</v>
+      </c>
+      <c r="BI3" t="str">
+        <v>18</v>
+      </c>
+      <c r="BJ3" t="str">
         <v>95.15</v>
       </c>
-      <c r="AC3" t="str">
+      <c r="BK3" t="str">
         <v>3.17</v>
       </c>
-      <c r="AD3" t="str">
+      <c r="BL3" t="str">
         <v>95.15</v>
       </c>
-      <c r="AE3" t="str">
+      <c r="BM3" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN3" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO3" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP3" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ3" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR3" t="str">
         <v>胰体尾占位性病变、胃地静脉曲张、脾大</v>
       </c>
-      <c r="AF3" t="str">
+      <c r="BS3" t="str">
+        <v>胰体尾脾切除术</v>
+      </c>
+      <c r="BT3" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU3" t="str">
+        <v>是</v>
+      </c>
+      <c r="BV3" t="str">
+        <v>是</v>
+      </c>
+      <c r="BW3" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX3" t="str">
         <v>2</v>
       </c>
-      <c r="AH3" t="str">
+      <c r="BZ3" t="str">
         <v>2017-07-26</v>
       </c>
-      <c r="AI3" t="str">
+      <c r="CA3" t="str">
         <v>280</v>
       </c>
-      <c r="AJ3" t="str">
+      <c r="CB3" t="str">
         <v>300</v>
       </c>
-      <c r="AM3" t="str">
+      <c r="CC3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF3" t="str">
+        <v>胰体尾</v>
+      </c>
+      <c r="CG3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH3" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK3" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL3" t="str">
         <v>9</v>
       </c>
-      <c r="AN3" t="str">
+      <c r="CM3" t="str">
         <v>4</v>
       </c>
-      <c r="AO3" t="str">
+      <c r="CN3" t="str">
         <v>4</v>
       </c>
-      <c r="AS3" t="str">
+      <c r="CO3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW3" t="str">
+        <v>Ⅰ级</v>
+      </c>
+      <c r="CX3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY3" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI3" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT3" t="str">
+      <c r="DJ3" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK3" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL3" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM3" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO3" t="str">
         <v>3</v>
       </c>
-      <c r="AU3" t="str">
+      <c r="DP3" t="str">
+        <v>3</v>
+      </c>
+      <c r="DQ3" t="str">
         <v>6</v>
       </c>
-      <c r="AV3" t="str">
+      <c r="DR3" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS3" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT3" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX3" t="str">
         <v>7156.0</v>
       </c>
-      <c r="AW3" t="str">
+      <c r="DY3" t="str">
         <v>62061.28</v>
       </c>
-      <c r="AY3" t="str">
-        <v>88</v>
-      </c>
-      <c r="AZ3" t="str">
-        <v>18</v>
-      </c>
-      <c r="BA3" t="str">
-        <v>152</v>
-      </c>
-      <c r="BB3" t="str">
-        <v>52</v>
-      </c>
-      <c r="BC3" t="str">
-        <v>胰体</v>
-      </c>
-      <c r="BD3" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE3" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF3" t="str">
-        <v>胰体尾脾切除术</v>
-      </c>
-      <c r="BG3" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH3" t="str">
-        <v>胰体尾</v>
-      </c>
-      <c r="BI3" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ3" t="str">
-        <v>Ⅰ级</v>
-      </c>
-      <c r="BK3" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL3" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="BN3" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BR3" t="str">
+      <c r="DZ3" t="str">
+        <v>是</v>
+      </c>
+      <c r="EA3" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB3" t="str">
+        <v>否</v>
+      </c>
+      <c r="ED3" t="str">
+        <v>中回声</v>
+      </c>
+      <c r="EE3" t="str">
+        <v>有血流信号</v>
+      </c>
+      <c r="EF3" t="str">
         <v>脾动脉、脾静脉</v>
       </c>
-      <c r="BS3" t="str">
+      <c r="EG3" t="str">
+        <v>否</v>
+      </c>
+      <c r="EH3" t="str">
         <v>吉西他滨</v>
       </c>
-      <c r="BT3" t="str">
+      <c r="EI3" t="str">
         <v>盐酸吉西他滨</v>
       </c>
-      <c r="BU3" t="str">
+      <c r="EJ3" t="str">
         <v>1.6</v>
       </c>
-      <c r="BV3" t="str">
+      <c r="EK3" t="str">
         <v>12</v>
       </c>
-      <c r="BW3" t="str">
-        <v>中回声</v>
-      </c>
-      <c r="BX3" t="str">
-        <v>有血流信号</v>
-      </c>
-      <c r="BY3" t="str">
+      <c r="EL3" t="str">
         <v>静脉化疗</v>
       </c>
     </row>
@@ -1205,156 +1793,345 @@
         <v>1.5</v>
       </c>
       <c r="P4" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>是</v>
+      </c>
+      <c r="R4" t="str">
+        <v>否</v>
+      </c>
+      <c r="S4" t="str">
+        <v>是</v>
+      </c>
+      <c r="T4" t="str">
+        <v>否</v>
+      </c>
+      <c r="U4" t="str">
+        <v>否</v>
+      </c>
+      <c r="V4" t="str">
+        <v>否</v>
+      </c>
+      <c r="W4" t="str">
+        <v>否</v>
+      </c>
+      <c r="X4" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y4" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z4" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>有</v>
+      </c>
+      <c r="AC4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE4" t="str">
+        <v>是</v>
+      </c>
+      <c r="AF4" t="str">
         <v>30</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="AG4" t="str">
+        <v>是</v>
+      </c>
+      <c r="AH4" t="str">
         <v>20</v>
       </c>
-      <c r="S4" t="str">
+      <c r="AJ4" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK4" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM4" t="str">
+        <v>175</v>
+      </c>
+      <c r="AN4" t="str">
+        <v>76</v>
+      </c>
+      <c r="AO4" t="str">
         <v>24.82</v>
       </c>
-      <c r="T4" t="str">
+      <c r="AP4" t="str">
         <v>3</v>
       </c>
-      <c r="U4" t="str">
+      <c r="AQ4" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS4" t="str">
         <v>7</v>
       </c>
-      <c r="V4" t="str">
+      <c r="AT4" t="str">
         <v>5</v>
       </c>
-      <c r="W4" t="str">
+      <c r="AU4" t="str">
         <v>3</v>
       </c>
-      <c r="X4" t="str">
+      <c r="AV4" t="str">
+        <v>胰体尾</v>
+      </c>
+      <c r="AW4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY4" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ4" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA4" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB4" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC4" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD4" t="str">
         <v>9</v>
       </c>
-      <c r="Y4" t="str">
+      <c r="BE4" t="str">
         <v>4.6</v>
       </c>
-      <c r="Z4" t="str">
+      <c r="BF4" t="str">
         <v>2.1</v>
       </c>
-      <c r="AA4" t="str">
+      <c r="BG4" t="str">
         <v>19</v>
       </c>
-      <c r="AB4" t="str">
+      <c r="BH4" t="str">
+        <v>49</v>
+      </c>
+      <c r="BI4" t="str">
+        <v>14</v>
+      </c>
+      <c r="BJ4" t="str">
         <v>94.72</v>
       </c>
-      <c r="AC4" t="str">
+      <c r="BK4" t="str">
         <v>2.92</v>
       </c>
-      <c r="AD4" t="str">
+      <c r="BL4" t="str">
         <v>26.71</v>
       </c>
-      <c r="AE4" t="str">
+      <c r="BM4" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN4" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO4" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP4" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ4" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR4" t="str">
         <v>胰腺占位、2型糖尿病</v>
       </c>
-      <c r="AF4" t="str">
+      <c r="BS4" t="str">
+        <v>胰体尾脾切除术</v>
+      </c>
+      <c r="BT4" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU4" t="str">
+        <v>是</v>
+      </c>
+      <c r="BV4" t="str">
+        <v>是</v>
+      </c>
+      <c r="BW4" t="str">
+        <v>否</v>
+      </c>
+      <c r="BX4" t="str">
         <v>4</v>
       </c>
-      <c r="AG4" t="str">
+      <c r="BY4" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH4" t="str">
+      <c r="BZ4" t="str">
         <v>2016-05-13</v>
       </c>
-      <c r="AI4" t="str">
+      <c r="CA4" t="str">
         <v>175</v>
       </c>
-      <c r="AJ4" t="str">
+      <c r="CB4" t="str">
         <v>600</v>
       </c>
-      <c r="AM4" t="str">
+      <c r="CC4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF4" t="str">
+        <v>胰体尾</v>
+      </c>
+      <c r="CG4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH4" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK4" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL4" t="str">
         <v>8</v>
       </c>
-      <c r="AN4" t="str">
+      <c r="CM4" t="str">
         <v>4</v>
       </c>
-      <c r="AO4" t="str">
+      <c r="CN4" t="str">
         <v>4</v>
       </c>
-      <c r="AS4" t="str">
+      <c r="CO4" t="str">
+        <v>是</v>
+      </c>
+      <c r="CP4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW4" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY4" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI4" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT4" t="str">
+      <c r="DJ4" t="str">
+        <v>高</v>
+      </c>
+      <c r="DK4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DL4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DN4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO4" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP4" t="str">
         <v>0</v>
       </c>
-      <c r="AU4" t="str">
+      <c r="DQ4" t="str">
         <v>1</v>
       </c>
-      <c r="AV4" t="str">
+      <c r="DR4" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS4" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT4" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX4" t="str">
         <v>6048.0</v>
       </c>
-      <c r="AW4" t="str">
+      <c r="DY4" t="str">
         <v>44440.96</v>
       </c>
-      <c r="AY4" t="str">
-        <v>49</v>
-      </c>
-      <c r="AZ4" t="str">
-        <v>14</v>
-      </c>
-      <c r="BA4" t="str">
-        <v>175</v>
-      </c>
-      <c r="BB4" t="str">
-        <v>76</v>
-      </c>
-      <c r="BC4" t="str">
-        <v>胰体尾</v>
-      </c>
-      <c r="BD4" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE4" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF4" t="str">
-        <v>胰体尾脾切除术</v>
-      </c>
-      <c r="BG4" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH4" t="str">
-        <v>胰体尾</v>
-      </c>
-      <c r="BI4" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ4" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK4" t="str">
-        <v>高</v>
-      </c>
-      <c r="BL4" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM4" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="BN4" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BR4" t="str">
+      <c r="DZ4" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA4" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB4" t="str">
+        <v>否</v>
+      </c>
+      <c r="EF4" t="str">
         <v>脾动静脉</v>
       </c>
-      <c r="BZ4" t="str">
+      <c r="EG4" t="str">
+        <v>否</v>
+      </c>
+      <c r="EM4" t="str">
         <v>12</v>
       </c>
-      <c r="CA4" t="str">
+      <c r="EN4" t="str">
         <v>20</v>
       </c>
-      <c r="CB4" t="str">
+      <c r="EO4" t="str">
         <v>0.5</v>
       </c>
-      <c r="CC4" t="str">
+      <c r="EP4" t="str">
         <v>+左侧肾上腺切除术</v>
       </c>
-      <c r="CD4" t="str">
+      <c r="EQ4" t="str">
         <v>生化漏</v>
       </c>
-      <c r="CE4" t="str">
+      <c r="ER4" t="str">
         <v>其他</v>
       </c>
     </row>
@@ -1405,193 +2182,373 @@
         <v>0.4</v>
       </c>
       <c r="P5" t="str">
+        <v>是</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>是</v>
+      </c>
+      <c r="R5" t="str">
+        <v>否</v>
+      </c>
+      <c r="S5" t="str">
+        <v>否</v>
+      </c>
+      <c r="T5" t="str">
+        <v>是</v>
+      </c>
+      <c r="U5" t="str">
+        <v>否</v>
+      </c>
+      <c r="V5" t="str">
+        <v>否</v>
+      </c>
+      <c r="W5" t="str">
+        <v>否</v>
+      </c>
+      <c r="X5" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y5" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z5" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB5" t="str">
+        <v>有</v>
+      </c>
+      <c r="AC5" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD5" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE5" t="str">
+        <v>是</v>
+      </c>
+      <c r="AF5" t="str">
         <v>30</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="AG5" t="str">
+        <v>是</v>
+      </c>
+      <c r="AH5" t="str">
         <v>30</v>
       </c>
-      <c r="S5" t="str">
+      <c r="AJ5" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK5" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL5" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM5" t="str">
+        <v>180</v>
+      </c>
+      <c r="AN5" t="str">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="str">
         <v>23.46</v>
       </c>
-      <c r="T5" t="str">
+      <c r="AP5" t="str">
         <v>2</v>
       </c>
-      <c r="U5" t="str">
+      <c r="AQ5" t="str">
+        <v>否</v>
+      </c>
+      <c r="AS5" t="str">
         <v>2.5</v>
       </c>
-      <c r="V5" t="str">
+      <c r="AT5" t="str">
         <v>2.5</v>
       </c>
-      <c r="W5" t="str">
+      <c r="AU5" t="str">
         <v>2</v>
       </c>
-      <c r="X5" t="str">
+      <c r="AV5" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW5" t="str">
+        <v>有</v>
+      </c>
+      <c r="AY5" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB5" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC5" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD5" t="str">
         <v>285</v>
       </c>
-      <c r="Y5" t="str">
+      <c r="BE5" t="str">
         <v>385.0</v>
       </c>
-      <c r="Z5" t="str">
+      <c r="BF5" t="str">
         <v>347.1</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="BG5" t="str">
         <v>808.0</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="BH5" t="str">
+        <v>899.0</v>
+      </c>
+      <c r="BI5" t="str">
+        <v>167</v>
+      </c>
+      <c r="BJ5" t="str">
         <v>184.4</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="BK5" t="str">
         <v>5.58</v>
       </c>
-      <c r="AD5" t="str">
+      <c r="BL5" t="str">
         <v>11.4</v>
       </c>
-      <c r="AE5" t="str">
+      <c r="BM5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ5" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR5" t="str">
         <v>胰头癌</v>
       </c>
-      <c r="AF5" t="str">
+      <c r="BS5" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT5" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW5" t="str">
+        <v>否</v>
+      </c>
+      <c r="BX5" t="str">
         <v>4</v>
       </c>
-      <c r="AG5" t="str">
+      <c r="BY5" t="str">
         <v>缝扎止血</v>
       </c>
-      <c r="AH5" t="str">
+      <c r="BZ5" t="str">
         <v>2015-12-23</v>
       </c>
-      <c r="AI5" t="str">
+      <c r="CA5" t="str">
         <v>315</v>
       </c>
-      <c r="AJ5" t="str">
+      <c r="CB5" t="str">
         <v>100</v>
       </c>
-      <c r="AK5" t="str">
+      <c r="CC5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CD5" t="str">
         <v>2</v>
       </c>
-      <c r="AL5" t="str">
+      <c r="CE5" t="str">
         <v>0</v>
       </c>
-      <c r="AM5" t="str">
+      <c r="CF5" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH5" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CL5" t="str">
         <v>23</v>
       </c>
-      <c r="AP5" t="str">
+      <c r="CO5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW5" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY5" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ5" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA5" t="str">
+        <v>是</v>
+      </c>
+      <c r="DB5" t="str">
         <v>美罗培南 1g q8h</v>
       </c>
-      <c r="AQ5" t="str">
+      <c r="DC5" t="str">
         <v>静滴</v>
       </c>
-      <c r="AR5" t="str">
+      <c r="DD5" t="str">
         <v>9</v>
       </c>
-      <c r="AS5" t="str">
+      <c r="DE5" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF5" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG5" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH5" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI5" t="str">
         <v>胰腺腺癌</v>
       </c>
-      <c r="AT5" t="str">
+      <c r="DJ5" t="str">
+        <v>低</v>
+      </c>
+      <c r="DK5" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL5" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM5" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN5" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO5" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP5" t="str">
         <v>0</v>
       </c>
-      <c r="AU5" t="str">
+      <c r="DQ5" t="str">
         <v>8</v>
       </c>
-      <c r="AV5" t="str">
+      <c r="DR5" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS5" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT5" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX5" t="str">
         <v>6470.00</v>
       </c>
-      <c r="AW5" t="str">
+      <c r="DY5" t="str">
         <v>99030.88</v>
       </c>
-      <c r="AY5" t="str">
-        <v>899.0</v>
-      </c>
-      <c r="AZ5" t="str">
-        <v>167</v>
-      </c>
-      <c r="BA5" t="str">
-        <v>180</v>
-      </c>
-      <c r="BB5" t="str">
-        <v>76</v>
-      </c>
-      <c r="BC5" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD5" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE5" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF5" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG5" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH5" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI5" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ5" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK5" t="str">
-        <v>低</v>
-      </c>
-      <c r="BL5" t="str">
+      <c r="DZ5" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA5" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB5" t="str">
+        <v>否</v>
+      </c>
+      <c r="ED5" t="str">
+        <v>低回声</v>
+      </c>
+      <c r="EE5" t="str">
+        <v>无血流信号</v>
+      </c>
+      <c r="EM5" t="str">
+        <v>60</v>
+      </c>
+      <c r="EN5" t="str">
+        <v>20</v>
+      </c>
+      <c r="EO5" t="str">
         <v>2</v>
       </c>
-      <c r="BM5" t="str">
+      <c r="ES5" t="str">
+        <v>高血压10余年</v>
+      </c>
+      <c r="ET5" t="str">
+        <v>2.9</v>
+      </c>
+      <c r="EU5" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="EV5" t="str">
+        <v>胰腺空肠吻合</v>
+      </c>
+      <c r="EW5" t="str">
+        <v>盆腔积液</v>
+      </c>
+      <c r="EX5" t="str">
+        <v>侵及胆总管及十二指肠</v>
+      </c>
+      <c r="EY5" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN5" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BW5" t="str">
-        <v>低回声</v>
-      </c>
-      <c r="BX5" t="str">
-        <v>无血流信号</v>
-      </c>
-      <c r="BZ5" t="str">
-        <v>60</v>
-      </c>
-      <c r="CA5" t="str">
-        <v>20</v>
-      </c>
-      <c r="CB5" t="str">
-        <v>2</v>
-      </c>
-      <c r="CF5" t="str">
-        <v>高血压10余年</v>
-      </c>
-      <c r="CG5" t="str">
-        <v>2.9</v>
-      </c>
-      <c r="CH5" t="str">
-        <v>1.2</v>
-      </c>
-      <c r="CI5" t="str">
-        <v>胰腺空肠吻合</v>
-      </c>
-      <c r="CJ5" t="str">
-        <v>盆腔积液</v>
-      </c>
-      <c r="CK5" t="str">
-        <v>侵及胆总管及十二指肠</v>
-      </c>
-      <c r="CL5" t="str">
+      <c r="EZ5" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FA5" t="str">
         <v>920.00</v>
       </c>
-      <c r="CM5" t="str">
+      <c r="FB5" t="str">
         <v>0</v>
       </c>
-      <c r="CN5" t="str">
+      <c r="FC5" t="str">
         <v>62173.78</v>
-      </c>
-      <c r="CO5" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CP5" t="str">
-        <v>阴性</v>
       </c>
     </row>
     <row r="6">
@@ -1640,181 +2597,367 @@
       <c r="O6" t="str">
         <v>0.25</v>
       </c>
+      <c r="P6" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>是</v>
+      </c>
+      <c r="R6" t="str">
+        <v>否</v>
+      </c>
       <c r="S6" t="str">
+        <v>否</v>
+      </c>
+      <c r="T6" t="str">
+        <v>是</v>
+      </c>
+      <c r="U6" t="str">
+        <v>否</v>
+      </c>
+      <c r="V6" t="str">
+        <v>否</v>
+      </c>
+      <c r="W6" t="str">
+        <v>否</v>
+      </c>
+      <c r="X6" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y6" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM6" t="str">
+        <v>173</v>
+      </c>
+      <c r="AN6" t="str">
+        <v>54</v>
+      </c>
+      <c r="AO6" t="str">
         <v>18.04</v>
       </c>
-      <c r="T6" t="str">
+      <c r="AP6" t="str">
         <v>4</v>
       </c>
-      <c r="U6" t="str">
+      <c r="AQ6" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS6" t="str">
         <v>5</v>
       </c>
-      <c r="V6" t="str">
+      <c r="AT6" t="str">
         <v>3</v>
       </c>
-      <c r="W6" t="str">
+      <c r="AU6" t="str">
         <v>2</v>
       </c>
-      <c r="X6" t="str">
+      <c r="AV6" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY6" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ6" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB6" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC6" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD6" t="str">
         <v>194</v>
       </c>
-      <c r="Y6" t="str">
+      <c r="BE6" t="str">
         <v>215.8</v>
       </c>
-      <c r="Z6" t="str">
+      <c r="BF6" t="str">
         <v>172.4</v>
       </c>
-      <c r="AA6" t="str">
+      <c r="BG6" t="str">
         <v>465</v>
       </c>
-      <c r="AB6" t="str">
+      <c r="BH6" t="str">
+        <v>566</v>
+      </c>
+      <c r="BI6" t="str">
+        <v>182</v>
+      </c>
+      <c r="BJ6" t="str">
         <v>905.6</v>
       </c>
-      <c r="AC6" t="str">
+      <c r="BK6" t="str">
         <v>2.38</v>
       </c>
-      <c r="AD6" t="str">
+      <c r="BL6" t="str">
         <v>73.97</v>
       </c>
-      <c r="AE6" t="str">
+      <c r="BM6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ6" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR6" t="str">
         <v>胰头癌、慢性阻塞性肺疾病</v>
       </c>
-      <c r="AF6" t="str">
+      <c r="BS6" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT6" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV6" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW6" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX6" t="str">
         <v>2</v>
       </c>
-      <c r="AG6" t="str">
+      <c r="BY6" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH6" t="str">
+      <c r="BZ6" t="str">
         <v>2018-03-16</v>
       </c>
-      <c r="AI6" t="str">
+      <c r="CA6" t="str">
         <v>260</v>
       </c>
-      <c r="AJ6" t="str">
+      <c r="CB6" t="str">
         <v>400</v>
       </c>
-      <c r="AK6" t="str">
+      <c r="CC6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CD6" t="str">
         <v>0</v>
       </c>
-      <c r="AL6" t="str">
+      <c r="CE6" t="str">
         <v>200</v>
       </c>
-      <c r="AM6" t="str">
+      <c r="CF6" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CH6" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI6" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK6" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL6" t="str">
         <v>12</v>
       </c>
-      <c r="AN6" t="str">
+      <c r="CM6" t="str">
         <v>1</v>
       </c>
-      <c r="AO6" t="str">
+      <c r="CN6" t="str">
         <v>6</v>
       </c>
-      <c r="AS6" t="str">
+      <c r="CO6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW6" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY6" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ6" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI6" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT6" t="str">
+      <c r="DJ6" t="str">
+        <v>中低</v>
+      </c>
+      <c r="DK6" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DN6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO6" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP6" t="str">
         <v>1</v>
       </c>
-      <c r="AU6" t="str">
+      <c r="DQ6" t="str">
         <v>8</v>
       </c>
-      <c r="AV6" t="str">
+      <c r="DR6" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS6" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT6" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX6" t="str">
         <v>6814.0</v>
       </c>
-      <c r="AW6" t="str">
+      <c r="DY6" t="str">
         <v>55730.79</v>
       </c>
-      <c r="AY6" t="str">
-        <v>566</v>
-      </c>
-      <c r="AZ6" t="str">
-        <v>182</v>
-      </c>
-      <c r="BA6" t="str">
-        <v>173</v>
-      </c>
-      <c r="BB6" t="str">
-        <v>54</v>
-      </c>
-      <c r="BC6" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD6" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE6" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF6" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG6" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH6" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI6" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ6" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK6" t="str">
-        <v>中低</v>
-      </c>
-      <c r="BL6" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM6" t="str">
+      <c r="DZ6" t="str">
+        <v>是</v>
+      </c>
+      <c r="EA6" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB6" t="str">
+        <v>否</v>
+      </c>
+      <c r="ED6" t="str">
+        <v>中回声</v>
+      </c>
+      <c r="EE6" t="str">
+        <v>无血流信号</v>
+      </c>
+      <c r="EH6" t="str">
+        <v>替吉奥</v>
+      </c>
+      <c r="EI6" t="str">
+        <v>替吉奥胶囊</v>
+      </c>
+      <c r="EJ6" t="str">
+        <v>40mg</v>
+      </c>
+      <c r="EK6" t="str">
+        <v>8</v>
+      </c>
+      <c r="EL6" t="str">
+        <v>口服</v>
+      </c>
+      <c r="ES6" t="str">
+        <v>10年前肺结核已治愈</v>
+      </c>
+      <c r="ET6" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="EV6" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EW6" t="str">
+        <v>低蛋白血症</v>
+      </c>
+      <c r="EY6" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN6" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BS6" t="str">
-        <v>替吉奥</v>
-      </c>
-      <c r="BT6" t="str">
-        <v>替吉奥胶囊</v>
-      </c>
-      <c r="BU6" t="str">
-        <v>40mg</v>
-      </c>
-      <c r="BV6" t="str">
-        <v>8</v>
-      </c>
-      <c r="BW6" t="str">
-        <v>中回声</v>
-      </c>
-      <c r="BX6" t="str">
-        <v>无血流信号</v>
-      </c>
-      <c r="BY6" t="str">
-        <v>口服</v>
-      </c>
-      <c r="CF6" t="str">
-        <v>10年前肺结核已治愈</v>
-      </c>
-      <c r="CG6" t="str">
-        <v>0.5</v>
-      </c>
-      <c r="CI6" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CJ6" t="str">
-        <v>低蛋白血症</v>
-      </c>
-      <c r="CO6" t="str">
+      <c r="EZ6" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP6" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CQ6" t="str">
+      <c r="FD6" t="str">
         <v>纳差</v>
       </c>
-      <c r="CR6" t="str">
+      <c r="FE6" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -1864,176 +3007,362 @@
       <c r="O7" t="str">
         <v>0.2</v>
       </c>
+      <c r="P7" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>是</v>
+      </c>
+      <c r="R7" t="str">
+        <v>是</v>
+      </c>
       <c r="S7" t="str">
+        <v>否</v>
+      </c>
+      <c r="T7" t="str">
+        <v>是</v>
+      </c>
+      <c r="U7" t="str">
+        <v>否</v>
+      </c>
+      <c r="V7" t="str">
+        <v>否</v>
+      </c>
+      <c r="W7" t="str">
+        <v>否</v>
+      </c>
+      <c r="X7" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y7" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM7" t="str">
+        <v>159</v>
+      </c>
+      <c r="AN7" t="str">
+        <v>53</v>
+      </c>
+      <c r="AO7" t="str">
         <v>20.96</v>
       </c>
-      <c r="T7" t="str">
+      <c r="AP7" t="str">
         <v>2</v>
       </c>
-      <c r="U7" t="str">
+      <c r="AQ7" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS7" t="str">
         <v>4</v>
       </c>
-      <c r="V7" t="str">
+      <c r="AT7" t="str">
         <v>3.8</v>
       </c>
-      <c r="W7" t="str">
+      <c r="AU7" t="str">
         <v>3.0</v>
       </c>
-      <c r="X7" t="str">
+      <c r="AV7" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW7" t="str">
+        <v>有</v>
+      </c>
+      <c r="AX7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY7" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ7" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA7" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB7" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC7" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD7" t="str">
         <v>219</v>
       </c>
-      <c r="Y7" t="str">
+      <c r="BE7" t="str">
         <v>143.2</v>
       </c>
-      <c r="Z7" t="str">
+      <c r="BF7" t="str">
         <v>106.6</v>
       </c>
-      <c r="AA7" t="str">
+      <c r="BG7" t="str">
         <v>683</v>
       </c>
-      <c r="AB7" t="str">
+      <c r="BH7" t="str">
+        <v>339</v>
+      </c>
+      <c r="BI7" t="str">
+        <v>86</v>
+      </c>
+      <c r="BJ7" t="str">
         <v>1857.0</v>
       </c>
-      <c r="AC7" t="str">
+      <c r="BK7" t="str">
         <v>2.97</v>
       </c>
-      <c r="AD7" t="str">
+      <c r="BL7" t="str">
         <v>6.63</v>
       </c>
-      <c r="AE7" t="str">
+      <c r="BM7" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN7" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO7" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP7" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ7" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR7" t="str">
         <v>胰腺癌、右肾血管平滑肌脂肪瘤</v>
       </c>
-      <c r="AF7" t="str">
+      <c r="BS7" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT7" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU7" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW7" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX7" t="str">
         <v>3</v>
       </c>
-      <c r="AG7" t="str">
+      <c r="BY7" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH7" t="str">
+      <c r="BZ7" t="str">
         <v>2017-09-20</v>
       </c>
-      <c r="AI7" t="str">
+      <c r="CA7" t="str">
         <v>200</v>
       </c>
-      <c r="AJ7" t="str">
+      <c r="CB7" t="str">
         <v>200</v>
       </c>
-      <c r="AM7" t="str">
+      <c r="CC7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF7" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH7" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI7" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK7" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL7" t="str">
         <v>18</v>
       </c>
-      <c r="AN7" t="str">
+      <c r="CM7" t="str">
         <v>9</v>
       </c>
-      <c r="AO7" t="str">
+      <c r="CN7" t="str">
         <v>4</v>
       </c>
-      <c r="AS7" t="str">
+      <c r="CO7" t="str">
+        <v>是</v>
+      </c>
+      <c r="CP7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW7" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY7" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI7" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT7" t="str">
+      <c r="DJ7" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK7" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL7" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM7" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO7" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP7" t="str">
         <v>0</v>
       </c>
-      <c r="AU7" t="str">
+      <c r="DQ7" t="str">
         <v>8</v>
       </c>
-      <c r="AV7" t="str">
+      <c r="DR7" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS7" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT7" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DW7" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DX7" t="str">
         <v>7774.0</v>
       </c>
-      <c r="AW7" t="str">
+      <c r="DY7" t="str">
         <v>64907.87</v>
       </c>
-      <c r="AY7" t="str">
-        <v>339</v>
-      </c>
-      <c r="AZ7" t="str">
-        <v>86</v>
-      </c>
-      <c r="BA7" t="str">
-        <v>159</v>
-      </c>
-      <c r="BB7" t="str">
-        <v>53</v>
-      </c>
-      <c r="BC7" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD7" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE7" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF7" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG7" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH7" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI7" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ7" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK7" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL7" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM7" t="str">
+      <c r="DZ7" t="str">
+        <v>是</v>
+      </c>
+      <c r="EA7" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB7" t="str">
+        <v>否</v>
+      </c>
+      <c r="EH7" t="str">
+        <v>盐酸吉西他滨</v>
+      </c>
+      <c r="EI7" t="str">
+        <v>盐酸吉西他滨</v>
+      </c>
+      <c r="EJ7" t="str">
+        <v>1.4g</v>
+      </c>
+      <c r="EK7" t="str">
+        <v>2</v>
+      </c>
+      <c r="EL7" t="str">
+        <v>静脉化疗</v>
+      </c>
+      <c r="EQ7" t="str">
+        <v>生化漏</v>
+      </c>
+      <c r="ER7" t="str">
+        <v>其他</v>
+      </c>
+      <c r="ES7" t="str">
+        <v>右肾血管平滑肌脂肪瘤、梗阻性黄疸</v>
+      </c>
+      <c r="EV7" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY7" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN7" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BQ7" t="str">
+      <c r="EZ7" t="str">
         <v>阴性</v>
       </c>
-      <c r="BS7" t="str">
-        <v>盐酸吉西他滨</v>
-      </c>
-      <c r="BT7" t="str">
-        <v>盐酸吉西他滨</v>
-      </c>
-      <c r="BU7" t="str">
-        <v>1.4g</v>
-      </c>
-      <c r="BV7" t="str">
-        <v>2</v>
-      </c>
-      <c r="BY7" t="str">
-        <v>静脉化疗</v>
-      </c>
-      <c r="CD7" t="str">
-        <v>生化漏</v>
-      </c>
-      <c r="CE7" t="str">
-        <v>其他</v>
-      </c>
-      <c r="CF7" t="str">
-        <v>右肾血管平滑肌脂肪瘤、梗阻性黄疸</v>
-      </c>
-      <c r="CI7" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CO7" t="str">
+      <c r="FE7" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP7" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CR7" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CS7" t="str">
+      <c r="FF7" t="str">
+        <v>阳性</v>
+      </c>
+      <c r="FG7" t="str">
         <v>CK19(+)、MUC-2(-)、MUC-5AC(+)</v>
-      </c>
-      <c r="CT7" t="str">
-        <v>阳性</v>
       </c>
     </row>
     <row r="8">
@@ -2082,160 +3411,334 @@
       <c r="O8" t="str">
         <v>3</v>
       </c>
+      <c r="P8" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>是</v>
+      </c>
+      <c r="R8" t="str">
+        <v>是</v>
+      </c>
       <c r="S8" t="str">
+        <v>是</v>
+      </c>
+      <c r="T8" t="str">
+        <v>否</v>
+      </c>
+      <c r="U8" t="str">
+        <v>否</v>
+      </c>
+      <c r="V8" t="str">
+        <v>否</v>
+      </c>
+      <c r="W8" t="str">
+        <v>是</v>
+      </c>
+      <c r="X8" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y8" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB8" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC8" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD8" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL8" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM8" t="str">
+        <v>154</v>
+      </c>
+      <c r="AN8" t="str">
+        <v>50</v>
+      </c>
+      <c r="AO8" t="str">
         <v>21.08</v>
       </c>
-      <c r="T8" t="str">
+      <c r="AP8" t="str">
         <v>1</v>
       </c>
-      <c r="U8" t="str">
+      <c r="AQ8" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR8" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS8" t="str">
         <v>3</v>
       </c>
-      <c r="V8" t="str">
+      <c r="AT8" t="str">
         <v>2.5</v>
       </c>
-      <c r="W8" t="str">
+      <c r="AU8" t="str">
         <v>2.5</v>
       </c>
-      <c r="X8" t="str">
+      <c r="AV8" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="BB8" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC8" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD8" t="str">
         <v>25</v>
       </c>
-      <c r="Y8" t="str">
+      <c r="BE8" t="str">
         <v>10.9</v>
       </c>
-      <c r="Z8" t="str">
+      <c r="BF8" t="str">
         <v>3.7</v>
       </c>
-      <c r="AA8" t="str">
+      <c r="BG8" t="str">
         <v>16</v>
       </c>
-      <c r="AB8" t="str">
+      <c r="BH8" t="str">
+        <v>104</v>
+      </c>
+      <c r="BI8" t="str">
+        <v>24</v>
+      </c>
+      <c r="BJ8" t="str">
         <v>12346.0</v>
       </c>
-      <c r="AC8" t="str">
+      <c r="BK8" t="str">
         <v>10.76</v>
       </c>
-      <c r="AD8" t="str">
+      <c r="BL8" t="str">
         <v>33.52</v>
       </c>
-      <c r="AE8" t="str">
+      <c r="BM8" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN8" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO8" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP8" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ8" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR8" t="str">
         <v>胰头占位</v>
       </c>
-      <c r="AF8" t="str">
+      <c r="BS8" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT8" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU8" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV8" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW8" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX8" t="str">
         <v>100</v>
       </c>
-      <c r="AG8" t="str">
+      <c r="BY8" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH8" t="str">
+      <c r="BZ8" t="str">
         <v>2016-11-09</v>
       </c>
-      <c r="AI8" t="str">
+      <c r="CA8" t="str">
         <v>235</v>
       </c>
-      <c r="AJ8" t="str">
+      <c r="CB8" t="str">
         <v>100</v>
       </c>
-      <c r="AK8" t="str">
+      <c r="CC8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CD8" t="str">
         <v>0</v>
       </c>
-      <c r="AL8" t="str">
+      <c r="CE8" t="str">
         <v>700</v>
       </c>
-      <c r="AM8" t="str">
+      <c r="CF8" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH8" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI8" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK8" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL8" t="str">
         <v>15</v>
       </c>
-      <c r="AN8" t="str">
+      <c r="CM8" t="str">
         <v>3</v>
       </c>
-      <c r="AO8" t="str">
+      <c r="CN8" t="str">
         <v>3</v>
       </c>
-      <c r="AS8" t="str">
+      <c r="CO8" t="str">
+        <v>是</v>
+      </c>
+      <c r="CP8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW8" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY8" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ8" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH8" t="str">
+        <v>是</v>
+      </c>
+      <c r="DI8" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT8" t="str">
+      <c r="DJ8" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DL8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DN8" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO8" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP8" t="str">
         <v>1</v>
       </c>
-      <c r="AU8" t="str">
+      <c r="DQ8" t="str">
         <v>13</v>
       </c>
-      <c r="AV8" t="str">
+      <c r="DR8" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS8" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT8" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX8" t="str">
         <v>4616.0</v>
       </c>
-      <c r="AW8" t="str">
+      <c r="DY8" t="str">
         <v>81605.28</v>
       </c>
-      <c r="AY8" t="str">
-        <v>104</v>
-      </c>
-      <c r="AZ8" t="str">
-        <v>24</v>
-      </c>
-      <c r="BA8" t="str">
-        <v>154</v>
-      </c>
-      <c r="BB8" t="str">
-        <v>50</v>
-      </c>
-      <c r="BC8" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD8" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE8" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF8" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG8" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH8" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI8" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ8" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK8" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL8" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM8" t="str">
+      <c r="DZ8" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA8" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB8" t="str">
+        <v>否</v>
+      </c>
+      <c r="ED8" t="str">
+        <v>中回声</v>
+      </c>
+      <c r="EE8" t="str">
+        <v>有血流信号</v>
+      </c>
+      <c r="EQ8" t="str">
+        <v>生化漏</v>
+      </c>
+      <c r="ER8" t="str">
+        <v>其他</v>
+      </c>
+      <c r="EV8" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY8" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN8" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BW8" t="str">
-        <v>中回声</v>
-      </c>
-      <c r="BX8" t="str">
-        <v>有血流信号</v>
-      </c>
-      <c r="CD8" t="str">
-        <v>生化漏</v>
-      </c>
-      <c r="CE8" t="str">
-        <v>其他</v>
-      </c>
-      <c r="CI8" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CO8" t="str">
+      <c r="EZ8" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP8" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CR8" t="str">
+      <c r="FE8" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -2286,175 +3789,364 @@
         <v>2</v>
       </c>
       <c r="P9" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>是</v>
+      </c>
+      <c r="R9" t="str">
+        <v>否</v>
+      </c>
+      <c r="S9" t="str">
+        <v>否</v>
+      </c>
+      <c r="T9" t="str">
+        <v>是</v>
+      </c>
+      <c r="U9" t="str">
+        <v>否</v>
+      </c>
+      <c r="V9" t="str">
+        <v>否</v>
+      </c>
+      <c r="W9" t="str">
+        <v>否</v>
+      </c>
+      <c r="X9" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z9" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA9" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE9" t="str">
+        <v>是</v>
+      </c>
+      <c r="AF9" t="str">
         <v>20</v>
       </c>
-      <c r="S9" t="str">
+      <c r="AG9" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ9" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK9" t="str">
+        <v>是</v>
+      </c>
+      <c r="AL9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM9" t="str">
+        <v>160</v>
+      </c>
+      <c r="AN9" t="str">
+        <v>50</v>
+      </c>
+      <c r="AO9" t="str">
         <v>19.53</v>
       </c>
-      <c r="T9" t="str">
+      <c r="AP9" t="str">
         <v>2</v>
       </c>
-      <c r="U9" t="str">
+      <c r="AQ9" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS9" t="str">
         <v>1</v>
       </c>
-      <c r="V9" t="str">
+      <c r="AT9" t="str">
         <v>1</v>
       </c>
-      <c r="X9" t="str">
+      <c r="AV9" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX9" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY9" t="str">
+        <v>有</v>
+      </c>
+      <c r="AZ9" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA9" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB9" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC9" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD9" t="str">
         <v>83</v>
       </c>
-      <c r="Y9" t="str">
+      <c r="BE9" t="str">
         <v>157.8</v>
       </c>
-      <c r="Z9" t="str">
+      <c r="BF9" t="str">
         <v>129.8</v>
       </c>
-      <c r="AA9" t="str">
+      <c r="BG9" t="str">
         <v>131</v>
       </c>
-      <c r="AB9" t="str">
+      <c r="BH9" t="str">
+        <v>336</v>
+      </c>
+      <c r="BI9" t="str">
+        <v>62</v>
+      </c>
+      <c r="BJ9" t="str">
         <v>89.91</v>
       </c>
-      <c r="AC9" t="str">
+      <c r="BK9" t="str">
         <v>2.78</v>
       </c>
-      <c r="AD9" t="str">
+      <c r="BL9" t="str">
         <v>16.62</v>
       </c>
-      <c r="AE9" t="str">
+      <c r="BM9" t="str">
+        <v>是</v>
+      </c>
+      <c r="BN9" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO9" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP9" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ9" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR9" t="str">
         <v>胰腺癌、梗阻性黄疸、PTCD术后</v>
       </c>
-      <c r="AF9" t="str">
+      <c r="BS9" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT9" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU9" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV9" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW9" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX9" t="str">
         <v>4</v>
       </c>
-      <c r="AG9" t="str">
+      <c r="BY9" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH9" t="str">
+      <c r="BZ9" t="str">
         <v>2017-11-29</v>
       </c>
-      <c r="AI9" t="str">
+      <c r="CA9" t="str">
         <v>175</v>
       </c>
-      <c r="AJ9" t="str">
+      <c r="CB9" t="str">
         <v>100</v>
       </c>
-      <c r="AM9" t="str">
+      <c r="CC9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF9" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH9" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI9" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK9" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL9" t="str">
         <v>10</v>
       </c>
-      <c r="AN9" t="str">
+      <c r="CM9" t="str">
         <v>4</v>
       </c>
-      <c r="AO9" t="str">
+      <c r="CN9" t="str">
         <v>4</v>
       </c>
-      <c r="AS9" t="str">
+      <c r="CO9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW9" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY9" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI9" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT9" t="str">
+      <c r="DJ9" t="str">
+        <v>中低</v>
+      </c>
+      <c r="DK9" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DN9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO9" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP9" t="str">
         <v>2</v>
       </c>
-      <c r="AU9" t="str">
+      <c r="DQ9" t="str">
         <v>9</v>
       </c>
-      <c r="AV9" t="str">
+      <c r="DR9" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS9" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT9" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX9" t="str">
         <v>6814.0</v>
       </c>
-      <c r="AW9" t="str">
+      <c r="DY9" t="str">
         <v>78276.49</v>
       </c>
-      <c r="AY9" t="str">
-        <v>336</v>
-      </c>
-      <c r="AZ9" t="str">
-        <v>62</v>
-      </c>
-      <c r="BA9" t="str">
-        <v>160</v>
-      </c>
-      <c r="BB9" t="str">
-        <v>50</v>
-      </c>
-      <c r="BC9" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD9" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE9" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF9" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG9" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH9" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI9" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ9" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK9" t="str">
-        <v>中低</v>
-      </c>
-      <c r="BL9" t="str">
+      <c r="DZ9" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA9" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB9" t="str">
+        <v>否</v>
+      </c>
+      <c r="EN9" t="str">
+        <v>20</v>
+      </c>
+      <c r="EQ9" t="str">
+        <v/>
+      </c>
+      <c r="EV9" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY9" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="EZ9" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FD9" t="str">
+        <v>瘙痒</v>
+      </c>
+      <c r="FE9" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FH9" t="str">
         <v>3</v>
       </c>
-      <c r="BM9" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="BN9" t="str">
-        <v>R0</v>
-      </c>
-      <c r="CA9" t="str">
-        <v>20</v>
-      </c>
-      <c r="CI9" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CO9" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CP9" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CQ9" t="str">
-        <v>瘙痒</v>
-      </c>
-      <c r="CR9" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CU9" t="str">
-        <v>3</v>
-      </c>
-      <c r="CV9" t="str">
+      <c r="FI9" t="str">
+        <v>PTCD</v>
+      </c>
+      <c r="FJ9" t="str">
         <v>30</v>
       </c>
-      <c r="CW9" t="str">
+      <c r="FK9" t="str">
         <v>366.4</v>
       </c>
-      <c r="CX9" t="str">
+      <c r="FL9" t="str">
         <v>288.7</v>
       </c>
-      <c r="CY9" t="str">
+      <c r="FM9" t="str">
         <v>157</v>
       </c>
-      <c r="CZ9" t="str">
+      <c r="FN9" t="str">
         <v>157.8</v>
       </c>
-      <c r="DA9" t="str">
+      <c r="FO9" t="str">
         <v>129.8</v>
       </c>
-      <c r="DB9" t="str">
+      <c r="FP9" t="str">
         <v>131</v>
-      </c>
-      <c r="DC9" t="str">
-        <v>PTCD</v>
       </c>
     </row>
     <row r="10">
@@ -2503,170 +4195,350 @@
       <c r="O10" t="str">
         <v>6</v>
       </c>
+      <c r="P10" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>是</v>
+      </c>
+      <c r="R10" t="str">
+        <v>是</v>
+      </c>
       <c r="S10" t="str">
+        <v>否</v>
+      </c>
+      <c r="T10" t="str">
+        <v>否</v>
+      </c>
+      <c r="U10" t="str">
+        <v>否</v>
+      </c>
+      <c r="V10" t="str">
+        <v>否</v>
+      </c>
+      <c r="W10" t="str">
+        <v>否</v>
+      </c>
+      <c r="X10" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y10" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z10" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB10" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC10" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD10" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE10" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG10" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ10" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK10" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL10" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM10" t="str">
+        <v>158</v>
+      </c>
+      <c r="AN10" t="str">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="str">
         <v>22.03</v>
       </c>
-      <c r="T10" t="str">
+      <c r="AP10" t="str">
         <v>3</v>
       </c>
-      <c r="U10" t="str">
+      <c r="AQ10" t="str">
+        <v>是</v>
+      </c>
+      <c r="AS10" t="str">
         <v>3</v>
       </c>
-      <c r="V10" t="str">
+      <c r="AT10" t="str">
         <v>2.5</v>
       </c>
-      <c r="W10" t="str">
+      <c r="AU10" t="str">
         <v>2</v>
       </c>
-      <c r="X10" t="str">
+      <c r="AV10" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW10" t="str">
+        <v>有</v>
+      </c>
+      <c r="AY10" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA10" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB10" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC10" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD10" t="str">
         <v>416</v>
       </c>
-      <c r="Y10" t="str">
+      <c r="BE10" t="str">
         <v>100.1</v>
       </c>
-      <c r="Z10" t="str">
+      <c r="BF10" t="str">
         <v>82.1</v>
       </c>
-      <c r="AA10" t="str">
+      <c r="BG10" t="str">
         <v>708</v>
       </c>
-      <c r="AB10" t="str">
+      <c r="BH10" t="str">
+        <v>473</v>
+      </c>
+      <c r="BI10" t="str">
+        <v>259</v>
+      </c>
+      <c r="BJ10" t="str">
         <v>82.800</v>
       </c>
-      <c r="AC10" t="str">
+      <c r="BK10" t="str">
         <v>2.830</v>
       </c>
-      <c r="AD10" t="str">
+      <c r="BL10" t="str">
         <v>8.8</v>
       </c>
-      <c r="AE10" t="str">
+      <c r="BM10" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN10" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO10" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP10" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ10" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR10" t="str">
         <v>胆总管下段癌</v>
       </c>
-      <c r="AF10" t="str">
+      <c r="BS10" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT10" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU10" t="str">
+        <v>是</v>
+      </c>
+      <c r="BV10" t="str">
+        <v>是</v>
+      </c>
+      <c r="BW10" t="str">
+        <v>否</v>
+      </c>
+      <c r="BX10" t="str">
         <v>2</v>
       </c>
-      <c r="AH10" t="str">
+      <c r="BZ10" t="str">
         <v>2016-07-18</v>
       </c>
-      <c r="AI10" t="str">
+      <c r="CA10" t="str">
         <v>375</v>
       </c>
-      <c r="AJ10" t="str">
+      <c r="CB10" t="str">
         <v>300</v>
       </c>
-      <c r="AM10" t="str">
+      <c r="CC10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF10" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH10" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CL10" t="str">
         <v>33</v>
       </c>
-      <c r="AN10" t="str">
+      <c r="CM10" t="str">
         <v>3</v>
       </c>
-      <c r="AS10" t="str">
+      <c r="CO10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT10" t="str">
+        <v>是</v>
+      </c>
+      <c r="CU10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW10" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY10" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ10" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA10" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF10" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG10" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH10" t="str">
+        <v>是</v>
+      </c>
+      <c r="DI10" t="str">
         <v>胰腺腺癌</v>
       </c>
-      <c r="AT10" t="str">
+      <c r="DJ10" t="str">
+        <v>中</v>
+      </c>
+      <c r="DN10" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO10" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP10" t="str">
         <v>0</v>
       </c>
-      <c r="AU10" t="str">
+      <c r="DQ10" t="str">
         <v>35</v>
       </c>
-      <c r="AV10" t="str">
+      <c r="DR10" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS10" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT10" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX10" t="str">
         <v>9955.00</v>
       </c>
-      <c r="AW10" t="str">
+      <c r="DY10" t="str">
         <v>119586.25</v>
       </c>
-      <c r="AY10" t="str">
-        <v>473</v>
-      </c>
-      <c r="AZ10" t="str">
-        <v>259</v>
-      </c>
-      <c r="BA10" t="str">
-        <v>158</v>
-      </c>
-      <c r="BB10" t="str">
-        <v>55</v>
-      </c>
-      <c r="BC10" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD10" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE10" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF10" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG10" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH10" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI10" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ10" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK10" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL10" t="str">
-        <v>2</v>
-      </c>
-      <c r="BM10" t="str">
+      <c r="DZ10" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA10" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB10" t="str">
+        <v>否</v>
+      </c>
+      <c r="ED10" t="str">
+        <v>低回声</v>
+      </c>
+      <c r="EF10" t="str">
+        <v>肠系膜上静脉侧壁</v>
+      </c>
+      <c r="EG10" t="str">
+        <v>否</v>
+      </c>
+      <c r="ES10" t="str">
+        <v>高血压20年,心脏早搏1年,眼科晶体植入术后1年</v>
+      </c>
+      <c r="ET10" t="str">
+        <v>3</v>
+      </c>
+      <c r="EU10" t="str">
+        <v>1.2</v>
+      </c>
+      <c r="EV10" t="str">
+        <v>胰肠端侧吻合</v>
+      </c>
+      <c r="EX10" t="str">
+        <v>侵及邻近胆总管及十二指肠乳头部</v>
+      </c>
+      <c r="EY10" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN10" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BR10" t="str">
-        <v>肠系膜上静脉侧壁</v>
-      </c>
-      <c r="BW10" t="str">
-        <v>低回声</v>
-      </c>
-      <c r="CF10" t="str">
-        <v>高血压20年,心脏早搏1年,眼科晶体植入术后1年</v>
-      </c>
-      <c r="CG10" t="str">
-        <v>3</v>
-      </c>
-      <c r="CH10" t="str">
-        <v>1.2</v>
-      </c>
-      <c r="CI10" t="str">
-        <v>胰肠端侧吻合</v>
-      </c>
-      <c r="CK10" t="str">
-        <v>侵及邻近胆总管及十二指肠乳头部</v>
-      </c>
-      <c r="CL10" t="str">
+      <c r="EZ10" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FA10" t="str">
         <v>1670.00</v>
       </c>
-      <c r="CM10" t="str">
+      <c r="FB10" t="str">
         <v>0</v>
       </c>
-      <c r="CN10" t="str">
+      <c r="FC10" t="str">
         <v>74561.38</v>
       </c>
-      <c r="CO10" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CP10" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DD10" t="str">
+      <c r="FQ10" t="str">
+        <v>否</v>
+      </c>
+      <c r="FR10" t="str">
+        <v>是</v>
+      </c>
+      <c r="FS10" t="str">
+        <v>右上腹及中上腹压痛、反跳痛</v>
+      </c>
+      <c r="FT10" t="str">
+        <v>无</v>
+      </c>
+      <c r="FU10" t="str">
         <v>1.720</v>
       </c>
-      <c r="DE10" t="str">
+      <c r="FV10" t="str">
         <v>10</v>
-      </c>
-      <c r="DF10" t="str">
-        <v>右上腹及中上腹压痛、反跳痛</v>
       </c>
     </row>
     <row r="11">
@@ -2715,178 +4587,340 @@
       <c r="O11" t="str">
         <v>1</v>
       </c>
-      <c r="S11" t="str">
+      <c r="P11" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE11" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG11" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ11" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK11" t="str">
+        <v>是</v>
+      </c>
+      <c r="AL11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM11" t="str">
+        <v>159</v>
+      </c>
+      <c r="AN11" t="str">
+        <v>45</v>
+      </c>
+      <c r="AO11" t="str">
         <v>17.80</v>
       </c>
-      <c r="U11" t="str">
+      <c r="AQ11" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS11" t="str">
         <v>2.5</v>
       </c>
-      <c r="V11" t="str">
+      <c r="AT11" t="str">
         <v>2.5</v>
       </c>
-      <c r="W11" t="str">
+      <c r="AU11" t="str">
         <v>2.5</v>
       </c>
-      <c r="X11" t="str">
+      <c r="AV11" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW11" t="str">
+        <v>有</v>
+      </c>
+      <c r="AX11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY11" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ11" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB11" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC11" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD11" t="str">
         <v>89</v>
       </c>
-      <c r="Y11" t="str">
+      <c r="BE11" t="str">
         <v>36</v>
       </c>
-      <c r="Z11" t="str">
+      <c r="BF11" t="str">
         <v>17</v>
       </c>
-      <c r="AA11" t="str">
+      <c r="BG11" t="str">
         <v>67</v>
       </c>
-      <c r="AB11" t="str">
+      <c r="BH11" t="str">
+        <v>26</v>
+      </c>
+      <c r="BI11" t="str">
+        <v>72</v>
+      </c>
+      <c r="BJ11" t="str">
         <v>678</v>
       </c>
-      <c r="AC11" t="str">
+      <c r="BK11" t="str">
         <v>4</v>
       </c>
-      <c r="AD11" t="str">
+      <c r="BL11" t="str">
         <v>14</v>
       </c>
-      <c r="AE11" t="str">
+      <c r="BM11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ11" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR11" t="str">
         <v>胰腺恶性肿瘤</v>
       </c>
-      <c r="AH11" t="str">
+      <c r="BS11" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT11" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW11" t="str">
+        <v>否</v>
+      </c>
+      <c r="BZ11" t="str">
         <v>2014-11-27</v>
       </c>
-      <c r="AI11" t="str">
+      <c r="CA11" t="str">
         <v>720</v>
       </c>
-      <c r="AM11" t="str">
+      <c r="CC11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CG11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH11" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CL11" t="str">
         <v>13</v>
       </c>
-      <c r="AN11" t="str">
+      <c r="CM11" t="str">
         <v>3</v>
       </c>
-      <c r="AO11" t="str">
+      <c r="CN11" t="str">
         <v>3</v>
       </c>
-      <c r="AP11" t="str">
+      <c r="CO11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CX11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY11" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA11" t="str">
+        <v>是</v>
+      </c>
+      <c r="DB11" t="str">
         <v>头孢哌酮</v>
       </c>
-      <c r="AQ11" t="str">
+      <c r="DC11" t="str">
         <v>3g q12h</v>
       </c>
-      <c r="AR11" t="str">
+      <c r="DD11" t="str">
         <v>7</v>
       </c>
-      <c r="AS11" t="str">
+      <c r="DE11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI11" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AV11" t="str">
+      <c r="DJ11" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DL11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DN11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO11" t="str">
+        <v>X</v>
+      </c>
+      <c r="DR11" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT11" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DU11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DV11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DW11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DX11" t="str">
         <v>28765</v>
       </c>
-      <c r="AW11" t="str">
+      <c r="DY11" t="str">
         <v>92734</v>
       </c>
-      <c r="AY11" t="str">
-        <v>26</v>
-      </c>
-      <c r="AZ11" t="str">
-        <v>72</v>
-      </c>
-      <c r="BA11" t="str">
-        <v>159</v>
-      </c>
-      <c r="BB11" t="str">
+      <c r="DZ11" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA11" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB11" t="str">
+        <v>否</v>
+      </c>
+      <c r="EY11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="EZ11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FA11" t="str">
+        <v>24963</v>
+      </c>
+      <c r="FB11" t="str">
+        <v>0</v>
+      </c>
+      <c r="FC11" t="str">
+        <v>39006</v>
+      </c>
+      <c r="FE11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FF11" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FU11" t="str">
+        <v>1</v>
+      </c>
+      <c r="FW11" t="str">
         <v>45</v>
       </c>
-      <c r="BC11" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD11" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE11" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF11" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG11" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BI11" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BK11" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL11" t="str">
-        <v>X</v>
-      </c>
-      <c r="BM11" t="str">
+      <c r="FX11" t="str">
+        <v>0</v>
+      </c>
+      <c r="FY11" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN11" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BO11" t="str">
+      <c r="FZ11" t="str">
         <v>阴性</v>
       </c>
-      <c r="BP11" t="str">
+      <c r="GA11" t="str">
         <v>阴性</v>
       </c>
-      <c r="BQ11" t="str">
+      <c r="GB11" t="str">
         <v>阴性</v>
       </c>
-      <c r="CL11" t="str">
-        <v>24963</v>
-      </c>
-      <c r="CM11" t="str">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="str">
-        <v>39006</v>
-      </c>
-      <c r="CO11" t="str">
+      <c r="GC11" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP11" t="str">
+      <c r="GD11" t="str">
         <v>阴性</v>
       </c>
-      <c r="CR11" t="str">
+      <c r="GE11" t="str">
         <v>阴性</v>
       </c>
-      <c r="CT11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DD11" t="str">
-        <v>1</v>
-      </c>
-      <c r="DG11" t="str">
-        <v>45</v>
-      </c>
-      <c r="DH11" t="str">
-        <v>0</v>
-      </c>
-      <c r="DI11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DJ11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DK11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DL11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DM11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DN11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DO11" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DP11" t="str">
+      <c r="GF11" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -2936,139 +4970,328 @@
       <c r="O12" t="str">
         <v>6</v>
       </c>
+      <c r="P12" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>是</v>
+      </c>
+      <c r="R12" t="str">
+        <v>是</v>
+      </c>
       <c r="S12" t="str">
+        <v>是</v>
+      </c>
+      <c r="T12" t="str">
+        <v>否</v>
+      </c>
+      <c r="U12" t="str">
+        <v>是</v>
+      </c>
+      <c r="V12" t="str">
+        <v>否</v>
+      </c>
+      <c r="W12" t="str">
+        <v>否</v>
+      </c>
+      <c r="X12" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y12" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM12" t="str">
+        <v>164</v>
+      </c>
+      <c r="AN12" t="str">
+        <v>62</v>
+      </c>
+      <c r="AO12" t="str">
         <v>23.05</v>
       </c>
-      <c r="T12" t="str">
+      <c r="AP12" t="str">
         <v>1</v>
       </c>
-      <c r="U12" t="str">
+      <c r="AQ12" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS12" t="str">
         <v>2</v>
       </c>
-      <c r="V12" t="str">
+      <c r="AT12" t="str">
         <v>1</v>
       </c>
-      <c r="X12" t="str">
+      <c r="AV12" t="str">
+        <v>胰尾</v>
+      </c>
+      <c r="AW12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY12" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ12" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB12" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC12" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD12" t="str">
         <v>16</v>
       </c>
-      <c r="Y12" t="str">
+      <c r="BE12" t="str">
         <v>11.2</v>
       </c>
-      <c r="Z12" t="str">
+      <c r="BF12" t="str">
         <v>3.5</v>
       </c>
-      <c r="AA12" t="str">
+      <c r="BG12" t="str">
         <v>22</v>
       </c>
-      <c r="AB12" t="str">
+      <c r="BH12" t="str">
+        <v>94</v>
+      </c>
+      <c r="BI12" t="str">
+        <v>16</v>
+      </c>
+      <c r="BJ12" t="str">
         <v>308.2</v>
       </c>
-      <c r="AC12" t="str">
+      <c r="BK12" t="str">
         <v>2.75</v>
       </c>
-      <c r="AD12" t="str">
+      <c r="BL12" t="str">
         <v>23.38</v>
       </c>
-      <c r="AE12" t="str">
+      <c r="BM12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ12" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR12" t="str">
         <v>胰腺占位</v>
       </c>
-      <c r="AF12" t="str">
+      <c r="BS12" t="str">
+        <v>胰体尾脾切除术</v>
+      </c>
+      <c r="BT12" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV12" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW12" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX12" t="str">
         <v>4</v>
       </c>
-      <c r="AG12" t="str">
+      <c r="BY12" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH12" t="str">
+      <c r="BZ12" t="str">
         <v>2018-07-04</v>
       </c>
-      <c r="AI12" t="str">
+      <c r="CA12" t="str">
         <v>165</v>
       </c>
-      <c r="AJ12" t="str">
+      <c r="CB12" t="str">
         <v>100</v>
       </c>
-      <c r="AM12" t="str">
+      <c r="CC12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF12" t="str">
+        <v>胰尾</v>
+      </c>
+      <c r="CG12" t="str">
+        <v>是</v>
+      </c>
+      <c r="CH12" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK12" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL12" t="str">
         <v>8</v>
       </c>
-      <c r="AN12" t="str">
+      <c r="CM12" t="str">
         <v>4</v>
       </c>
-      <c r="AO12" t="str">
+      <c r="CN12" t="str">
         <v>4</v>
       </c>
-      <c r="AS12" t="str">
+      <c r="CO12" t="str">
+        <v>是</v>
+      </c>
+      <c r="CP12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW12" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY12" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ12" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA12" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF12" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG12" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH12" t="str">
+        <v>是</v>
+      </c>
+      <c r="DI12" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT12" t="str">
+      <c r="DJ12" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK12" t="str">
+        <v>否</v>
+      </c>
+      <c r="DL12" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM12" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN12" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO12" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP12" t="str">
         <v>0</v>
       </c>
-      <c r="AU12" t="str">
+      <c r="DQ12" t="str">
         <v>3</v>
       </c>
-      <c r="AV12" t="str">
+      <c r="DR12" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS12" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT12" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX12" t="str">
         <v>7156.0</v>
       </c>
-      <c r="AW12" t="str">
+      <c r="DY12" t="str">
         <v>29695.59</v>
       </c>
-      <c r="AX12" t="str">
+      <c r="DZ12" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA12" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB12" t="str">
+        <v>否</v>
+      </c>
+      <c r="EC12" t="str">
         <v>未做</v>
       </c>
-      <c r="AY12" t="str">
-        <v>94</v>
-      </c>
-      <c r="AZ12" t="str">
-        <v>16</v>
-      </c>
-      <c r="BA12" t="str">
-        <v>164</v>
-      </c>
-      <c r="BB12" t="str">
-        <v>62</v>
-      </c>
-      <c r="BC12" t="str">
-        <v>胰尾</v>
-      </c>
-      <c r="BD12" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE12" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF12" t="str">
-        <v>胰体尾脾切除术</v>
-      </c>
-      <c r="BG12" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH12" t="str">
-        <v>胰尾</v>
-      </c>
-      <c r="BI12" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ12" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK12" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL12" t="str">
-        <v>2</v>
-      </c>
-      <c r="BM12" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="BN12" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BS12" t="str">
-        <v/>
-      </c>
-      <c r="CD12" t="str">
+      <c r="EH12" t="str">
+        <v/>
+      </c>
+      <c r="EQ12" t="str">
         <v>生化漏</v>
       </c>
-      <c r="CE12" t="str">
+      <c r="ER12" t="str">
         <v>其他</v>
       </c>
     </row>
@@ -3118,166 +5341,352 @@
       <c r="O13" t="str">
         <v>24</v>
       </c>
+      <c r="P13" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>是</v>
+      </c>
+      <c r="R13" t="str">
+        <v>否</v>
+      </c>
       <c r="S13" t="str">
+        <v>是</v>
+      </c>
+      <c r="T13" t="str">
+        <v>否</v>
+      </c>
+      <c r="U13" t="str">
+        <v>否</v>
+      </c>
+      <c r="V13" t="str">
+        <v>否</v>
+      </c>
+      <c r="W13" t="str">
+        <v>否</v>
+      </c>
+      <c r="X13" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y13" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB13" t="str">
+        <v>有</v>
+      </c>
+      <c r="AC13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM13" t="str">
+        <v>181</v>
+      </c>
+      <c r="AN13" t="str">
+        <v>76</v>
+      </c>
+      <c r="AO13" t="str">
         <v>23.20</v>
       </c>
-      <c r="T13" t="str">
+      <c r="AP13" t="str">
         <v>1</v>
       </c>
-      <c r="U13" t="str">
+      <c r="AQ13" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS13" t="str">
         <v>1.5</v>
       </c>
-      <c r="V13" t="str">
+      <c r="AT13" t="str">
         <v>1.5</v>
       </c>
-      <c r="W13" t="str">
+      <c r="AU13" t="str">
         <v>1.5</v>
       </c>
-      <c r="X13" t="str">
+      <c r="AV13" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY13" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ13" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB13" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC13" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD13" t="str">
         <v>495</v>
       </c>
-      <c r="Y13" t="str">
+      <c r="BE13" t="str">
         <v>23.3</v>
       </c>
-      <c r="Z13" t="str">
+      <c r="BF13" t="str">
         <v>9.1</v>
       </c>
-      <c r="AA13" t="str">
+      <c r="BG13" t="str">
         <v>1609</v>
       </c>
-      <c r="AB13" t="str">
+      <c r="BH13" t="str">
+        <v>333</v>
+      </c>
+      <c r="BI13" t="str">
+        <v>225</v>
+      </c>
+      <c r="BJ13" t="str">
         <v>1530.0</v>
       </c>
-      <c r="AC13" t="str">
+      <c r="BK13" t="str">
         <v>3.87</v>
       </c>
-      <c r="AD13" t="str">
+      <c r="BL13" t="str">
         <v>26.08</v>
       </c>
-      <c r="AE13" t="str">
+      <c r="BM13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ13" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR13" t="str">
         <v>胰腺占位、2型糖尿病</v>
       </c>
-      <c r="AF13" t="str">
+      <c r="BS13" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT13" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV13" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW13" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX13" t="str">
         <v>5</v>
       </c>
-      <c r="AG13" t="str">
+      <c r="BY13" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH13" t="str">
+      <c r="BZ13" t="str">
         <v>2017-03-15</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="CA13" t="str">
         <v>345</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="CB13" t="str">
         <v>600</v>
       </c>
-      <c r="AL13" t="str">
+      <c r="CC13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CE13" t="str">
         <v>760</v>
       </c>
-      <c r="AM13" t="str">
+      <c r="CF13" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH13" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI13" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK13" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL13" t="str">
         <v>20</v>
       </c>
-      <c r="AN13" t="str">
+      <c r="CM13" t="str">
         <v>3</v>
       </c>
-      <c r="AO13" t="str">
+      <c r="CN13" t="str">
         <v>4</v>
       </c>
-      <c r="AS13" t="str">
+      <c r="CO13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW13" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX13" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ13" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA13" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF13" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG13" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH13" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI13" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT13" t="str">
+      <c r="DJ13" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK13" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL13" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM13" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN13" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO13" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP13" t="str">
         <v>4</v>
       </c>
-      <c r="AU13" t="str">
+      <c r="DQ13" t="str">
         <v>13</v>
       </c>
-      <c r="AV13" t="str">
+      <c r="DR13" t="str">
+        <v>是</v>
+      </c>
+      <c r="DS13" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT13" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX13" t="str">
         <v>4616</v>
       </c>
-      <c r="AW13" t="str">
+      <c r="DY13" t="str">
         <v>91469.9</v>
       </c>
-      <c r="AY13" t="str">
-        <v>333</v>
-      </c>
-      <c r="AZ13" t="str">
-        <v>225</v>
-      </c>
-      <c r="BA13" t="str">
-        <v>181</v>
-      </c>
-      <c r="BB13" t="str">
-        <v>76</v>
-      </c>
-      <c r="BC13" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD13" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE13" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF13" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG13" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH13" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI13" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ13" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK13" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL13" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM13" t="str">
+      <c r="DZ13" t="str">
+        <v>是</v>
+      </c>
+      <c r="EA13" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB13" t="str">
+        <v>否</v>
+      </c>
+      <c r="EH13" t="str">
+        <v>吉西他滨</v>
+      </c>
+      <c r="EI13" t="str">
+        <v>盐酸吉西他滨</v>
+      </c>
+      <c r="EJ13" t="str">
+        <v>1.4</v>
+      </c>
+      <c r="EK13" t="str">
+        <v>8</v>
+      </c>
+      <c r="EL13" t="str">
+        <v>静脉化疗</v>
+      </c>
+      <c r="EV13" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY13" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN13" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BS13" t="str">
-        <v>吉西他滨</v>
-      </c>
-      <c r="BT13" t="str">
-        <v>盐酸吉西他滨</v>
-      </c>
-      <c r="BU13" t="str">
-        <v>1.4</v>
-      </c>
-      <c r="BV13" t="str">
-        <v>8</v>
-      </c>
-      <c r="BY13" t="str">
-        <v>静脉化疗</v>
-      </c>
-      <c r="CI13" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CN13" t="str">
+      <c r="EZ13" t="str">
+        <v>阳性</v>
+      </c>
+      <c r="FC13" t="str">
         <v>3548.68</v>
       </c>
-      <c r="CO13" t="str">
+      <c r="FE13" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP13" t="str">
-        <v>阳性</v>
-      </c>
-      <c r="CR13" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DI13" t="str">
+      <c r="FY13" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -3327,163 +5736,346 @@
       <c r="O14" t="str">
         <v>1</v>
       </c>
+      <c r="P14" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>是</v>
+      </c>
+      <c r="R14" t="str">
+        <v>是</v>
+      </c>
       <c r="S14" t="str">
+        <v>否</v>
+      </c>
+      <c r="T14" t="str">
+        <v>否</v>
+      </c>
+      <c r="U14" t="str">
+        <v>否</v>
+      </c>
+      <c r="V14" t="str">
+        <v>否</v>
+      </c>
+      <c r="W14" t="str">
+        <v>否</v>
+      </c>
+      <c r="X14" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y14" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB14" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC14" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD14" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL14" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM14" t="str">
+        <v>170</v>
+      </c>
+      <c r="AN14" t="str">
+        <v>68</v>
+      </c>
+      <c r="AO14" t="str">
         <v>23.53</v>
       </c>
-      <c r="T14" t="str">
+      <c r="AP14" t="str">
         <v>1</v>
       </c>
-      <c r="U14" t="str">
+      <c r="AQ14" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR14" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS14" t="str">
         <v>2.5</v>
       </c>
-      <c r="V14" t="str">
+      <c r="AT14" t="str">
         <v>1.8</v>
       </c>
-      <c r="W14" t="str">
+      <c r="AU14" t="str">
         <v>2.0</v>
       </c>
-      <c r="X14" t="str">
+      <c r="AV14" t="str">
+        <v>胰尾</v>
+      </c>
+      <c r="AW14" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY14" t="str">
+        <v>有</v>
+      </c>
+      <c r="BA14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB14" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC14" t="str">
+        <v>有</v>
+      </c>
+      <c r="BD14" t="str">
         <v>54</v>
       </c>
-      <c r="Y14" t="str">
+      <c r="BE14" t="str">
         <v>7.9</v>
       </c>
-      <c r="Z14" t="str">
+      <c r="BF14" t="str">
         <v>2.2</v>
       </c>
-      <c r="AA14" t="str">
+      <c r="BG14" t="str">
         <v>29</v>
       </c>
-      <c r="AB14" t="str">
+      <c r="BH14" t="str">
+        <v>87</v>
+      </c>
+      <c r="BI14" t="str">
+        <v>19</v>
+      </c>
+      <c r="BJ14" t="str">
         <v>105</v>
       </c>
-      <c r="AC14" t="str">
+      <c r="BK14" t="str">
         <v>14.17</v>
       </c>
-      <c r="AD14" t="str">
+      <c r="BL14" t="str">
         <v>12.47</v>
       </c>
-      <c r="AE14" t="str">
+      <c r="BM14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ14" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR14" t="str">
         <v>胰腺占位</v>
       </c>
-      <c r="AF14" t="str">
+      <c r="BS14" t="str">
+        <v>胰体尾脾切除术</v>
+      </c>
+      <c r="BT14" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV14" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW14" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX14" t="str">
         <v>2</v>
       </c>
-      <c r="AG14" t="str">
+      <c r="BY14" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH14" t="str">
+      <c r="BZ14" t="str">
         <v>2017-10-11</v>
       </c>
-      <c r="AI14" t="str">
+      <c r="CA14" t="str">
         <v>150</v>
       </c>
-      <c r="AJ14" t="str">
+      <c r="CB14" t="str">
         <v>200</v>
       </c>
-      <c r="AM14" t="str">
+      <c r="CC14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF14" t="str">
+        <v>胰体尾</v>
+      </c>
+      <c r="CG14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH14" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK14" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL14" t="str">
         <v>8</v>
       </c>
-      <c r="AN14" t="str">
+      <c r="CM14" t="str">
         <v>3</v>
       </c>
-      <c r="AO14" t="str">
+      <c r="CN14" t="str">
         <v>4</v>
       </c>
-      <c r="AS14" t="str">
+      <c r="CO14" t="str">
+        <v>是</v>
+      </c>
+      <c r="CP14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW14" t="str">
+        <v>Ⅰ级</v>
+      </c>
+      <c r="CX14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY14" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ14" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA14" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF14" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG14" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH14" t="str">
+        <v>是</v>
+      </c>
+      <c r="DI14" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT14" t="str">
+      <c r="DJ14" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK14" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL14" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM14" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN14" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO14" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP14" t="str">
         <v>1</v>
-      </c>
-      <c r="AU14" t="str">
-        <v>3</v>
-      </c>
-      <c r="AV14" t="str">
-        <v>6196.0</v>
-      </c>
-      <c r="AW14" t="str">
-        <v>38050.4</v>
-      </c>
-      <c r="AY14" t="str">
-        <v>87</v>
-      </c>
-      <c r="AZ14" t="str">
-        <v>19</v>
-      </c>
-      <c r="BA14" t="str">
-        <v>170</v>
-      </c>
-      <c r="BB14" t="str">
-        <v>68</v>
-      </c>
-      <c r="BC14" t="str">
-        <v>胰尾</v>
-      </c>
-      <c r="BD14" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE14" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF14" t="str">
-        <v>胰体尾脾切除术</v>
-      </c>
-      <c r="BG14" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH14" t="str">
-        <v>胰体尾</v>
-      </c>
-      <c r="BI14" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ14" t="str">
-        <v>Ⅰ级</v>
-      </c>
-      <c r="BK14" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL14" t="str">
-        <v>2</v>
-      </c>
-      <c r="BM14" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="BN14" t="str">
-        <v>R1</v>
-      </c>
-      <c r="BS14" t="str">
-        <v>紫杉醇</v>
-      </c>
-      <c r="BT14" t="str">
-        <v>紫杉醇</v>
-      </c>
-      <c r="BU14" t="str">
-        <v>200mg</v>
-      </c>
-      <c r="BV14" t="str">
-        <v>2</v>
-      </c>
-      <c r="BY14" t="str">
-        <v>静脉化疗</v>
-      </c>
-      <c r="CD14" t="str">
-        <v>生化漏</v>
-      </c>
-      <c r="CR14" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CU14" t="str">
-        <v>胰周淋巴结</v>
       </c>
       <c r="DQ14" t="str">
         <v>3</v>
       </c>
       <c r="DR14" t="str">
+        <v>是</v>
+      </c>
+      <c r="DS14" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT14" t="str">
+        <v>R1</v>
+      </c>
+      <c r="DX14" t="str">
+        <v>6196.0</v>
+      </c>
+      <c r="DY14" t="str">
+        <v>38050.4</v>
+      </c>
+      <c r="DZ14" t="str">
+        <v>是</v>
+      </c>
+      <c r="EA14" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB14" t="str">
+        <v>否</v>
+      </c>
+      <c r="EH14" t="str">
+        <v>紫杉醇</v>
+      </c>
+      <c r="EI14" t="str">
+        <v>紫杉醇</v>
+      </c>
+      <c r="EJ14" t="str">
+        <v>200mg</v>
+      </c>
+      <c r="EK14" t="str">
+        <v>2</v>
+      </c>
+      <c r="EL14" t="str">
+        <v>静脉化疗</v>
+      </c>
+      <c r="EQ14" t="str">
+        <v>生化漏</v>
+      </c>
+      <c r="FE14" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FH14" t="str">
+        <v>胰周淋巴结</v>
+      </c>
+      <c r="GG14" t="str">
+        <v>3</v>
+      </c>
+      <c r="GH14" t="str">
         <v>超声引导穿刺活检</v>
       </c>
-      <c r="DS14" t="str">
+      <c r="GI14" t="str">
         <v>查见少许胰腺组织伴纤维组织增生及慢性炎</v>
       </c>
     </row>
@@ -3534,162 +6126,351 @@
         <v>1</v>
       </c>
       <c r="P15" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>是</v>
+      </c>
+      <c r="R15" t="str">
+        <v>是</v>
+      </c>
+      <c r="S15" t="str">
+        <v>否</v>
+      </c>
+      <c r="T15" t="str">
+        <v>是</v>
+      </c>
+      <c r="U15" t="str">
+        <v>否</v>
+      </c>
+      <c r="V15" t="str">
+        <v>否</v>
+      </c>
+      <c r="W15" t="str">
+        <v>是</v>
+      </c>
+      <c r="X15" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y15" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z15" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA15" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>有</v>
+      </c>
+      <c r="AE15" t="str">
+        <v>是</v>
+      </c>
+      <c r="AF15" t="str">
         <v>40</v>
       </c>
-      <c r="Q15" t="str">
+      <c r="AG15" t="str">
+        <v>是</v>
+      </c>
+      <c r="AH15" t="str">
         <v>20</v>
       </c>
-      <c r="S15" t="str">
+      <c r="AJ15" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK15" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM15" t="str">
+        <v>163</v>
+      </c>
+      <c r="AN15" t="str">
+        <v>76</v>
+      </c>
+      <c r="AO15" t="str">
         <v>28.60</v>
       </c>
-      <c r="T15" t="str">
+      <c r="AP15" t="str">
         <v>2</v>
       </c>
-      <c r="U15" t="str">
+      <c r="AQ15" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS15" t="str">
         <v>5</v>
       </c>
-      <c r="V15" t="str">
+      <c r="AT15" t="str">
         <v>4</v>
       </c>
-      <c r="X15" t="str">
+      <c r="AV15" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY15" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ15" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB15" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC15" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD15" t="str">
         <v>117</v>
       </c>
-      <c r="Y15" t="str">
+      <c r="BE15" t="str">
         <v>186.7</v>
       </c>
-      <c r="Z15" t="str">
+      <c r="BF15" t="str">
         <v>150.1</v>
       </c>
-      <c r="AA15" t="str">
+      <c r="BG15" t="str">
         <v>204</v>
       </c>
-      <c r="AB15" t="str">
+      <c r="BH15" t="str">
+        <v>227</v>
+      </c>
+      <c r="BI15" t="str">
+        <v>46</v>
+      </c>
+      <c r="BJ15" t="str">
         <v>388.2</v>
       </c>
-      <c r="AC15" t="str">
+      <c r="BK15" t="str">
         <v>1.99</v>
       </c>
-      <c r="AD15" t="str">
+      <c r="BL15" t="str">
         <v>34.25</v>
       </c>
-      <c r="AE15" t="str">
+      <c r="BM15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ15" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR15" t="str">
         <v>胰腺占位、梗阻性黄疸、结石性胆囊炎、双肾囊肿</v>
       </c>
-      <c r="AF15" t="str">
+      <c r="BS15" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT15" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV15" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW15" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX15" t="str">
         <v>7</v>
       </c>
-      <c r="AG15" t="str">
+      <c r="BY15" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH15" t="str">
+      <c r="BZ15" t="str">
         <v>2017-01-05</v>
       </c>
-      <c r="AI15" t="str">
+      <c r="CA15" t="str">
         <v>295</v>
       </c>
-      <c r="AJ15" t="str">
+      <c r="CB15" t="str">
         <v>400</v>
       </c>
-      <c r="AK15" t="str">
+      <c r="CC15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CD15" t="str">
         <v>0</v>
       </c>
-      <c r="AL15" t="str">
+      <c r="CE15" t="str">
         <v>350</v>
       </c>
-      <c r="AM15" t="str">
+      <c r="CF15" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH15" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI15" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK15" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL15" t="str">
         <v>15</v>
       </c>
-      <c r="AN15" t="str">
+      <c r="CM15" t="str">
         <v>6</v>
       </c>
-      <c r="AO15" t="str">
+      <c r="CN15" t="str">
         <v>7</v>
       </c>
-      <c r="AS15" t="str">
+      <c r="CO15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW15" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY15" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ15" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI15" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT15" t="str">
+      <c r="DJ15" t="str">
+        <v>中低</v>
+      </c>
+      <c r="DK15" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM15" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO15" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP15" t="str">
         <v>0</v>
       </c>
-      <c r="AU15" t="str">
+      <c r="DQ15" t="str">
         <v>12</v>
       </c>
-      <c r="AV15" t="str">
+      <c r="DR15" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS15" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT15" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX15" t="str">
         <v>4616.0</v>
       </c>
-      <c r="AW15" t="str">
+      <c r="DY15" t="str">
         <v>96758.43</v>
       </c>
-      <c r="AY15" t="str">
-        <v>227</v>
-      </c>
-      <c r="AZ15" t="str">
-        <v>46</v>
-      </c>
-      <c r="BA15" t="str">
-        <v>163</v>
-      </c>
-      <c r="BB15" t="str">
-        <v>76</v>
-      </c>
-      <c r="BC15" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD15" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE15" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF15" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG15" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH15" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI15" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ15" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK15" t="str">
-        <v>中低</v>
-      </c>
-      <c r="BL15" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM15" t="str">
+      <c r="DZ15" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA15" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB15" t="str">
+        <v>否</v>
+      </c>
+      <c r="EN15" t="str">
+        <v>20</v>
+      </c>
+      <c r="EO15" t="str">
+        <v>2</v>
+      </c>
+      <c r="ES15" t="str">
+        <v>高血压5年</v>
+      </c>
+      <c r="EV15" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY15" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN15" t="str">
-        <v>R0</v>
-      </c>
-      <c r="CA15" t="str">
-        <v>20</v>
-      </c>
-      <c r="CB15" t="str">
-        <v>2</v>
-      </c>
-      <c r="CF15" t="str">
-        <v>高血压5年</v>
-      </c>
-      <c r="CI15" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CO15" t="str">
+      <c r="EZ15" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP15" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CQ15" t="str">
+      <c r="FD15" t="str">
         <v>乏力</v>
       </c>
-      <c r="CR15" t="str">
+      <c r="FE15" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -3739,163 +6520,346 @@
       <c r="O16" t="str">
         <v>0.7</v>
       </c>
+      <c r="P16" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>是</v>
+      </c>
+      <c r="R16" t="str">
+        <v>是</v>
+      </c>
       <c r="S16" t="str">
+        <v>否</v>
+      </c>
+      <c r="T16" t="str">
+        <v>是</v>
+      </c>
+      <c r="U16" t="str">
+        <v>否</v>
+      </c>
+      <c r="V16" t="str">
+        <v>否</v>
+      </c>
+      <c r="W16" t="str">
+        <v>否</v>
+      </c>
+      <c r="X16" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y16" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z16" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE16" t="str">
+        <v>是</v>
+      </c>
+      <c r="AG16" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ16" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK16" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM16" t="str">
+        <v>168</v>
+      </c>
+      <c r="AN16" t="str">
+        <v>70</v>
+      </c>
+      <c r="AO16" t="str">
         <v>24.80</v>
       </c>
-      <c r="T16" t="str">
+      <c r="AP16" t="str">
         <v>3</v>
       </c>
-      <c r="U16" t="str">
+      <c r="AQ16" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS16" t="str">
         <v>3.2</v>
       </c>
-      <c r="V16" t="str">
+      <c r="AT16" t="str">
         <v>3</v>
       </c>
-      <c r="X16" t="str">
+      <c r="AV16" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY16" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ16" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA16" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB16" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC16" t="str">
+        <v>有</v>
+      </c>
+      <c r="BD16" t="str">
         <v>98</v>
       </c>
-      <c r="Y16" t="str">
+      <c r="BE16" t="str">
         <v>312.9</v>
       </c>
-      <c r="Z16" t="str">
+      <c r="BF16" t="str">
         <v>271.8</v>
       </c>
-      <c r="AA16" t="str">
+      <c r="BG16" t="str">
         <v>560</v>
       </c>
-      <c r="AB16" t="str">
+      <c r="BH16" t="str">
+        <v>308</v>
+      </c>
+      <c r="BI16" t="str">
+        <v>64</v>
+      </c>
+      <c r="BJ16" t="str">
         <v>204.8</v>
       </c>
-      <c r="AC16" t="str">
+      <c r="BK16" t="str">
         <v>11.41</v>
       </c>
-      <c r="AD16" t="str">
+      <c r="BL16" t="str">
         <v>9.16</v>
       </c>
-      <c r="AE16" t="str">
+      <c r="BM16" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN16" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO16" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP16" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ16" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR16" t="str">
         <v>胰头癌、梗阻性黄疸</v>
       </c>
-      <c r="AF16" t="str">
+      <c r="BS16" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT16" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BV16" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW16" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX16" t="str">
         <v>4</v>
       </c>
-      <c r="AG16" t="str">
+      <c r="BY16" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH16" t="str">
+      <c r="BZ16" t="str">
         <v>2016-08-12</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="CA16" t="str">
         <v>345</v>
       </c>
-      <c r="AJ16" t="str">
+      <c r="CB16" t="str">
         <v>600</v>
       </c>
-      <c r="AK16" t="str">
+      <c r="CC16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CD16" t="str">
         <v>8</v>
       </c>
-      <c r="AL16" t="str">
+      <c r="CE16" t="str">
         <v>1420</v>
       </c>
-      <c r="AM16" t="str">
+      <c r="CF16" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH16" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI16" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK16" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL16" t="str">
         <v>24</v>
       </c>
-      <c r="AN16" t="str">
+      <c r="CM16" t="str">
         <v>4</v>
       </c>
-      <c r="AO16" t="str">
+      <c r="CN16" t="str">
         <v>4</v>
       </c>
-      <c r="AS16" t="str">
+      <c r="CO16" t="str">
+        <v>是</v>
+      </c>
+      <c r="CP16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW16" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY16" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ16" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA16" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF16" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG16" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH16" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI16" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT16" t="str">
+      <c r="DJ16" t="str">
+        <v>高中</v>
+      </c>
+      <c r="DK16" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL16" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM16" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN16" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO16" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP16" t="str">
         <v>0</v>
       </c>
-      <c r="AU16" t="str">
+      <c r="DQ16" t="str">
         <v>11</v>
       </c>
-      <c r="AV16" t="str">
+      <c r="DS16" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT16" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX16" t="str">
         <v>4616</v>
       </c>
-      <c r="AW16" t="str">
+      <c r="DY16" t="str">
         <v>115777.84</v>
       </c>
-      <c r="AY16" t="str">
-        <v>308</v>
-      </c>
-      <c r="AZ16" t="str">
-        <v>64</v>
-      </c>
-      <c r="BA16" t="str">
-        <v>168</v>
-      </c>
-      <c r="BB16" t="str">
-        <v>70</v>
-      </c>
-      <c r="BC16" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD16" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE16" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF16" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG16" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH16" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI16" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ16" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK16" t="str">
-        <v>高中</v>
-      </c>
-      <c r="BL16" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM16" t="str">
+      <c r="DZ16" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA16" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB16" t="str">
+        <v>否</v>
+      </c>
+      <c r="EN16" t="str">
+        <v>10</v>
+      </c>
+      <c r="EQ16" t="str">
+        <v>B级胰漏</v>
+      </c>
+      <c r="ER16" t="str">
+        <v>其他</v>
+      </c>
+      <c r="EV16" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EW16" t="str">
+        <v>伤口液化</v>
+      </c>
+      <c r="EY16" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN16" t="str">
-        <v>R0</v>
-      </c>
-      <c r="CA16" t="str">
-        <v>10</v>
-      </c>
-      <c r="CD16" t="str">
-        <v>B级胰漏</v>
-      </c>
-      <c r="CE16" t="str">
-        <v>其他</v>
-      </c>
-      <c r="CI16" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CJ16" t="str">
-        <v>伤口液化</v>
-      </c>
-      <c r="CO16" t="str">
+      <c r="EZ16" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP16" t="str">
+      <c r="FE16" t="str">
         <v>阴性</v>
       </c>
-      <c r="CR16" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DR16" t="str">
+      <c r="GH16" t="str">
         <v>超声内镜下胰腺穿刺活检</v>
       </c>
-      <c r="DS16" t="str">
+      <c r="GI16" t="str">
         <v>倾向于胰腺导管腺癌</v>
       </c>
     </row>
@@ -3945,154 +6909,298 @@
       <c r="O17" t="str">
         <v>0.4</v>
       </c>
-      <c r="S17" t="str">
+      <c r="P17" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q17" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB17" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC17" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD17" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE17" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG17" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ17" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK17" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL17" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM17" t="str">
+        <v>170</v>
+      </c>
+      <c r="AN17" t="str">
+        <v>48</v>
+      </c>
+      <c r="AO17" t="str">
         <v>16.61</v>
       </c>
-      <c r="T17" t="str">
+      <c r="AP17" t="str">
         <v>2</v>
       </c>
-      <c r="U17" t="str">
+      <c r="AQ17" t="str">
+        <v>否</v>
+      </c>
+      <c r="AS17" t="str">
         <v>3.5</v>
       </c>
-      <c r="V17" t="str">
+      <c r="AT17" t="str">
         <v>3.5</v>
       </c>
-      <c r="W17" t="str">
+      <c r="AU17" t="str">
         <v>3</v>
       </c>
-      <c r="X17" t="str">
+      <c r="AV17" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="BB17" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC17" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD17" t="str">
         <v>22</v>
       </c>
-      <c r="Y17" t="str">
+      <c r="BE17" t="str">
         <v>10.1</v>
       </c>
-      <c r="Z17" t="str">
+      <c r="BF17" t="str">
         <v>4.5</v>
       </c>
-      <c r="AA17" t="str">
+      <c r="BG17" t="str">
         <v>9</v>
       </c>
-      <c r="AB17" t="str">
+      <c r="BH17" t="str">
+        <v>74</v>
+      </c>
+      <c r="BI17" t="str">
+        <v>18</v>
+      </c>
+      <c r="BJ17" t="str">
         <v>2.920</v>
       </c>
-      <c r="AC17" t="str">
+      <c r="BK17" t="str">
         <v>20.390</v>
       </c>
-      <c r="AD17" t="str">
+      <c r="BL17" t="str">
         <v>8.6</v>
       </c>
-      <c r="AE17" t="str">
+      <c r="BM17" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN17" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO17" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP17" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ17" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR17" t="str">
         <v>胰头恶性肿瘤</v>
       </c>
-      <c r="AH17" t="str">
+      <c r="BS17" t="str">
+        <v>胰十二指肠切除术（联合门静脉壁切除）</v>
+      </c>
+      <c r="BT17" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU17" t="str">
+        <v>是</v>
+      </c>
+      <c r="BV17" t="str">
+        <v>是</v>
+      </c>
+      <c r="BW17" t="str">
+        <v>否</v>
+      </c>
+      <c r="BZ17" t="str">
         <v>2018-02-28</v>
       </c>
-      <c r="AI17" t="str">
+      <c r="CA17" t="str">
         <v>420</v>
       </c>
-      <c r="AJ17" t="str">
+      <c r="CB17" t="str">
         <v>400</v>
       </c>
-      <c r="AK17" t="str">
+      <c r="CC17" t="str">
+        <v>是</v>
+      </c>
+      <c r="CD17" t="str">
         <v>0</v>
       </c>
-      <c r="AL17" t="str">
+      <c r="CE17" t="str">
         <v>400</v>
       </c>
-      <c r="AM17" t="str">
+      <c r="CF17" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH17" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CL17" t="str">
         <v>13</v>
       </c>
-      <c r="AS17" t="str">
+      <c r="CO17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW17" t="str">
+        <v/>
+      </c>
+      <c r="CX17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY17" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ17" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA17" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF17" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG17" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH17" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI17" t="str">
         <v>胰腺腺癌</v>
       </c>
-      <c r="AT17" t="str">
+      <c r="DJ17" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK17" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL17" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM17" t="str">
+        <v>是</v>
+      </c>
+      <c r="DO17" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP17" t="str">
         <v>1</v>
       </c>
-      <c r="AU17" t="str">
+      <c r="DQ17" t="str">
         <v>8</v>
       </c>
-      <c r="AV17" t="str">
+      <c r="DR17" t="str">
+        <v>是</v>
+      </c>
+      <c r="DS17" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT17" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX17" t="str">
         <v>13396.00</v>
       </c>
-      <c r="AW17" t="str">
+      <c r="DY17" t="str">
         <v>84104.24</v>
       </c>
-      <c r="AY17" t="str">
-        <v>74</v>
-      </c>
-      <c r="AZ17" t="str">
-        <v>18</v>
-      </c>
-      <c r="BA17" t="str">
-        <v>170</v>
-      </c>
-      <c r="BB17" t="str">
-        <v>48</v>
-      </c>
-      <c r="BC17" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD17" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE17" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF17" t="str">
-        <v>胰十二指肠切除术（联合门静脉壁切除）</v>
-      </c>
-      <c r="BG17" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH17" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI17" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BK17" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL17" t="str">
-        <v>2</v>
-      </c>
-      <c r="BM17" t="str">
+      <c r="DZ17" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA17" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB17" t="str">
+        <v>否</v>
+      </c>
+      <c r="EF17" t="str">
+        <v>门静脉，肠系膜上静脉</v>
+      </c>
+      <c r="EG17" t="str">
+        <v>否</v>
+      </c>
+      <c r="ES17" t="str">
+        <v>阑尾切除术后40余年，因子宫肌瘤行子宫切除术后20余年，腹膜后平滑肌瘤切除术后20年</v>
+      </c>
+      <c r="ET17" t="str">
+        <v>6</v>
+      </c>
+      <c r="EV17" t="str">
+        <v>胰管空肠端侧吻合</v>
+      </c>
+      <c r="EX17" t="str">
+        <v>未累及胆总管及十二指肠乳头部</v>
+      </c>
+      <c r="EY17" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN17" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BR17" t="str">
-        <v>门静脉，肠系膜上静脉</v>
-      </c>
-      <c r="CF17" t="str">
-        <v>阑尾切除术后40余年，因子宫肌瘤行子宫切除术后20余年，腹膜后平滑肌瘤切除术后20年</v>
-      </c>
-      <c r="CG17" t="str">
-        <v>6</v>
-      </c>
-      <c r="CI17" t="str">
-        <v>胰管空肠端侧吻合</v>
-      </c>
-      <c r="CK17" t="str">
-        <v>未累及胆总管及十二指肠乳头部</v>
-      </c>
-      <c r="CL17" t="str">
+      <c r="EZ17" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FA17" t="str">
         <v>933.00</v>
       </c>
-      <c r="CM17" t="str">
+      <c r="FB17" t="str">
         <v>0</v>
       </c>
-      <c r="CN17" t="str">
+      <c r="FC17" t="str">
         <v>46518.56</v>
       </c>
-      <c r="CO17" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CP17" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CR17" t="str">
+      <c r="FE17" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -4142,167 +7250,365 @@
       <c r="O18" t="str">
         <v>1.3</v>
       </c>
+      <c r="P18" t="str">
+        <v>是</v>
+      </c>
+      <c r="Q18" t="str">
+        <v>是</v>
+      </c>
+      <c r="R18" t="str">
+        <v>是</v>
+      </c>
       <c r="S18" t="str">
+        <v>否</v>
+      </c>
+      <c r="T18" t="str">
+        <v>否</v>
+      </c>
+      <c r="U18" t="str">
+        <v>否</v>
+      </c>
+      <c r="V18" t="str">
+        <v>否</v>
+      </c>
+      <c r="W18" t="str">
+        <v>否</v>
+      </c>
+      <c r="X18" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y18" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z18" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA18" t="str">
+        <v/>
+      </c>
+      <c r="AB18" t="str">
+        <v>有</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG18" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ18" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK18" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL18" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM18" t="str">
+        <v>157</v>
+      </c>
+      <c r="AN18" t="str">
+        <v>50</v>
+      </c>
+      <c r="AO18" t="str">
         <v>20.28</v>
       </c>
-      <c r="T18" t="str">
+      <c r="AP18" t="str">
         <v>5</v>
       </c>
-      <c r="U18" t="str">
+      <c r="AQ18" t="str">
+        <v>是</v>
+      </c>
+      <c r="AS18" t="str">
         <v>3.5</v>
-      </c>
-      <c r="V18" t="str">
-        <v>3</v>
-      </c>
-      <c r="W18" t="str">
-        <v>2</v>
-      </c>
-      <c r="X18" t="str">
-        <v>13</v>
-      </c>
-      <c r="Y18" t="str">
-        <v>9.9</v>
-      </c>
-      <c r="Z18" t="str">
-        <v>3.3</v>
-      </c>
-      <c r="AA18" t="str">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="str">
-        <v>.600</v>
-      </c>
-      <c r="AC18" t="str">
-        <v>6.140</v>
-      </c>
-      <c r="AD18" t="str">
-        <v>14.7</v>
-      </c>
-      <c r="AE18" t="str">
-        <v>胰头癌</v>
-      </c>
-      <c r="AF18" t="str">
-        <v>3</v>
-      </c>
-      <c r="AH18" t="str">
-        <v>2017-11-30</v>
-      </c>
-      <c r="AI18" t="str">
-        <v>360</v>
-      </c>
-      <c r="AJ18" t="str">
-        <v>500</v>
-      </c>
-      <c r="AK18" t="str">
-        <v>3</v>
-      </c>
-      <c r="AL18" t="str">
-        <v>400</v>
-      </c>
-      <c r="AM18" t="str">
-        <v>18</v>
-      </c>
-      <c r="AP18" t="str">
-        <v/>
-      </c>
-      <c r="AQ18" t="str">
-        <v/>
-      </c>
-      <c r="AR18" t="str">
-        <v/>
-      </c>
-      <c r="AS18" t="str">
-        <v>胰腺腺癌</v>
       </c>
       <c r="AT18" t="str">
         <v>3</v>
       </c>
       <c r="AU18" t="str">
+        <v>2</v>
+      </c>
+      <c r="AV18" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW18" t="str">
+        <v>有</v>
+      </c>
+      <c r="AX18" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY18" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ18" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB18" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC18" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD18" t="str">
+        <v>13</v>
+      </c>
+      <c r="BE18" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="BF18" t="str">
+        <v>3.3</v>
+      </c>
+      <c r="BG18" t="str">
+        <v>17</v>
+      </c>
+      <c r="BH18" t="str">
+        <v>83</v>
+      </c>
+      <c r="BI18" t="str">
+        <v>16</v>
+      </c>
+      <c r="BJ18" t="str">
+        <v>.600</v>
+      </c>
+      <c r="BK18" t="str">
+        <v>6.140</v>
+      </c>
+      <c r="BL18" t="str">
+        <v>14.7</v>
+      </c>
+      <c r="BM18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ18" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR18" t="str">
+        <v>胰头癌</v>
+      </c>
+      <c r="BS18" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT18" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BV18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW18" t="str">
+        <v>否</v>
+      </c>
+      <c r="BX18" t="str">
+        <v>3</v>
+      </c>
+      <c r="BZ18" t="str">
+        <v>2017-11-30</v>
+      </c>
+      <c r="CA18" t="str">
+        <v>360</v>
+      </c>
+      <c r="CB18" t="str">
+        <v>500</v>
+      </c>
+      <c r="CC18" t="str">
+        <v>是</v>
+      </c>
+      <c r="CD18" t="str">
+        <v>3</v>
+      </c>
+      <c r="CE18" t="str">
+        <v>400</v>
+      </c>
+      <c r="CF18" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH18" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CJ18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CL18" t="str">
+        <v>18</v>
+      </c>
+      <c r="CO18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW18" t="str">
+        <v/>
+      </c>
+      <c r="CX18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY18" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ18" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA18" t="str">
+        <v>否</v>
+      </c>
+      <c r="DB18" t="str">
+        <v/>
+      </c>
+      <c r="DC18" t="str">
+        <v/>
+      </c>
+      <c r="DD18" t="str">
+        <v/>
+      </c>
+      <c r="DF18" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG18" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH18" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI18" t="str">
+        <v>胰腺腺癌</v>
+      </c>
+      <c r="DJ18" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK18" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL18" t="str">
+        <v/>
+      </c>
+      <c r="DM18" t="str">
+        <v/>
+      </c>
+      <c r="DN18" t="str">
+        <v/>
+      </c>
+      <c r="DO18" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP18" t="str">
+        <v>3</v>
+      </c>
+      <c r="DQ18" t="str">
         <v>10</v>
       </c>
-      <c r="AV18" t="str">
+      <c r="DR18" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS18" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT18" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX18" t="str">
         <v>12029.00</v>
       </c>
-      <c r="AW18" t="str">
+      <c r="DY18" t="str">
         <v>88460.83</v>
       </c>
-      <c r="AY18" t="str">
-        <v>83</v>
-      </c>
-      <c r="AZ18" t="str">
-        <v>16</v>
-      </c>
-      <c r="BA18" t="str">
-        <v>157</v>
-      </c>
-      <c r="BB18" t="str">
-        <v>50</v>
-      </c>
-      <c r="BC18" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD18" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE18" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF18" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG18" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH18" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI18" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BK18" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL18" t="str">
-        <v>2</v>
-      </c>
-      <c r="BM18" t="str">
+      <c r="DZ18" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA18" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB18" t="str">
+        <v>否</v>
+      </c>
+      <c r="EM18" t="str">
+        <v>36</v>
+      </c>
+      <c r="ES18" t="str">
+        <v>高血压5年</v>
+      </c>
+      <c r="EV18" t="str">
+        <v>胰腺空肠端侧吻合</v>
+      </c>
+      <c r="EX18" t="str">
+        <v>侵及局限区胰腺外表面及局灶区胆总管下段组织，未侵及十二指肠乳头区组织</v>
+      </c>
+      <c r="EY18" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN18" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BZ18" t="str">
-        <v>36</v>
-      </c>
-      <c r="CF18" t="str">
-        <v>高血压5年</v>
-      </c>
-      <c r="CI18" t="str">
-        <v>胰腺空肠端侧吻合</v>
-      </c>
-      <c r="CK18" t="str">
-        <v>侵及局限区胰腺外表面及局灶区胆总管下段组织，未侵及十二指肠乳头区组织</v>
-      </c>
-      <c r="CL18" t="str">
+      <c r="EZ18" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FA18" t="str">
         <v>1165.00</v>
       </c>
-      <c r="CM18" t="str">
+      <c r="FB18" t="str">
         <v>0</v>
       </c>
-      <c r="CN18" t="str">
+      <c r="FC18" t="str">
         <v>44570.15</v>
       </c>
-      <c r="CO18" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CP18" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CQ18" t="str">
+      <c r="FD18" t="str">
         <v>食纳差</v>
       </c>
-      <c r="DF18" t="str">
+      <c r="FQ18" t="str">
+        <v>否</v>
+      </c>
+      <c r="FR18" t="str">
+        <v>是</v>
+      </c>
+      <c r="FS18" t="str">
         <v>上腹部剑突下</v>
+      </c>
+      <c r="FT18" t="str">
+        <v>无</v>
       </c>
     </row>
     <row r="19">
@@ -4351,145 +7657,337 @@
       <c r="O19" t="str">
         <v>1</v>
       </c>
+      <c r="P19" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q19" t="str">
+        <v>是</v>
+      </c>
+      <c r="R19" t="str">
+        <v>否</v>
+      </c>
       <c r="S19" t="str">
+        <v>是</v>
+      </c>
+      <c r="T19" t="str">
+        <v>否</v>
+      </c>
+      <c r="U19" t="str">
+        <v>否</v>
+      </c>
+      <c r="V19" t="str">
+        <v>否</v>
+      </c>
+      <c r="W19" t="str">
+        <v>否</v>
+      </c>
+      <c r="X19" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y19" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM19" t="str">
+        <v>153</v>
+      </c>
+      <c r="AN19" t="str">
+        <v>51</v>
+      </c>
+      <c r="AO19" t="str">
         <v>21.79</v>
       </c>
-      <c r="T19" t="str">
+      <c r="AP19" t="str">
         <v>3</v>
       </c>
-      <c r="U19" t="str">
+      <c r="AQ19" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS19" t="str">
         <v>4</v>
       </c>
-      <c r="V19" t="str">
+      <c r="AT19" t="str">
         <v>2.5</v>
       </c>
-      <c r="X19" t="str">
+      <c r="AV19" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY19" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ19" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA19" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB19" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC19" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD19" t="str">
         <v>57</v>
       </c>
-      <c r="Y19" t="str">
+      <c r="BE19" t="str">
         <v>12.5</v>
       </c>
-      <c r="Z19" t="str">
+      <c r="BF19" t="str">
         <v>7.0</v>
       </c>
-      <c r="AA19" t="str">
+      <c r="BG19" t="str">
         <v>15</v>
       </c>
-      <c r="AB19" t="str">
+      <c r="BH19" t="str">
+        <v>60</v>
+      </c>
+      <c r="BI19" t="str">
+        <v>42</v>
+      </c>
+      <c r="BJ19" t="str">
         <v>1951.0</v>
       </c>
-      <c r="AC19" t="str">
+      <c r="BK19" t="str">
         <v>1951.0</v>
       </c>
-      <c r="AD19" t="str">
+      <c r="BL19" t="str">
         <v>17.94</v>
       </c>
-      <c r="AE19" t="str">
+      <c r="BM19" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN19" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO19" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP19" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ19" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR19" t="str">
         <v>胰腺癌</v>
       </c>
-      <c r="AF19" t="str">
+      <c r="BS19" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT19" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU19" t="str">
+        <v>是</v>
+      </c>
+      <c r="BV19" t="str">
+        <v>是</v>
+      </c>
+      <c r="BW19" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX19" t="str">
         <v>4</v>
       </c>
-      <c r="AG19" t="str">
+      <c r="BY19" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH19" t="str">
+      <c r="BZ19" t="str">
         <v>2018-04-20</v>
       </c>
-      <c r="AI19" t="str">
+      <c r="CA19" t="str">
         <v>270</v>
       </c>
-      <c r="AJ19" t="str">
+      <c r="CB19" t="str">
         <v>200</v>
       </c>
-      <c r="AM19" t="str">
+      <c r="CC19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF19" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH19" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI19" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK19" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL19" t="str">
         <v>10</v>
       </c>
-      <c r="AN19" t="str">
+      <c r="CM19" t="str">
         <v>4</v>
       </c>
-      <c r="AO19" t="str">
+      <c r="CN19" t="str">
         <v>4</v>
       </c>
-      <c r="AS19" t="str">
+      <c r="CO19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW19" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY19" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH19" t="str">
+        <v>是</v>
+      </c>
+      <c r="DI19" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT19" t="str">
+      <c r="DJ19" t="str">
+        <v>中</v>
+      </c>
+      <c r="DK19" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DM19" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO19" t="str">
+        <v>2</v>
+      </c>
+      <c r="DP19" t="str">
         <v>6</v>
       </c>
-      <c r="AU19" t="str">
+      <c r="DQ19" t="str">
         <v>11</v>
       </c>
-      <c r="AV19" t="str">
+      <c r="DR19" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS19" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT19" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX19" t="str">
         <v>6814.0</v>
       </c>
-      <c r="AW19" t="str">
+      <c r="DY19" t="str">
         <v>87012.55</v>
       </c>
-      <c r="AY19" t="str">
-        <v>60</v>
-      </c>
-      <c r="AZ19" t="str">
-        <v>42</v>
-      </c>
-      <c r="BA19" t="str">
-        <v>153</v>
-      </c>
-      <c r="BB19" t="str">
-        <v>51</v>
-      </c>
-      <c r="BC19" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD19" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE19" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF19" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG19" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH19" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI19" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ19" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK19" t="str">
-        <v>中</v>
-      </c>
-      <c r="BL19" t="str">
-        <v>2</v>
-      </c>
-      <c r="BM19" t="str">
+      <c r="DZ19" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA19" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB19" t="str">
+        <v>否</v>
+      </c>
+      <c r="EF19" t="str">
+        <v>肠系膜上静脉</v>
+      </c>
+      <c r="EG19" t="str">
+        <v>否</v>
+      </c>
+      <c r="EV19" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY19" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN19" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BR19" t="str">
-        <v>肠系膜上静脉</v>
-      </c>
-      <c r="CI19" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CM19" t="str">
+      <c r="EZ19" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="FB19" t="str">
         <v>0</v>
       </c>
-      <c r="CO19" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CP19" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CR19" t="str">
+      <c r="FE19" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -4539,151 +8037,334 @@
       <c r="O20" t="str">
         <v>1.5</v>
       </c>
+      <c r="P20" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>是</v>
+      </c>
+      <c r="R20" t="str">
+        <v>是</v>
+      </c>
       <c r="S20" t="str">
+        <v>否</v>
+      </c>
+      <c r="T20" t="str">
+        <v>否</v>
+      </c>
+      <c r="U20" t="str">
+        <v>是</v>
+      </c>
+      <c r="V20" t="str">
+        <v>否</v>
+      </c>
+      <c r="W20" t="str">
+        <v>否</v>
+      </c>
+      <c r="X20" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y20" t="str">
+        <v>是</v>
+      </c>
+      <c r="Z20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB20" t="str">
+        <v>有</v>
+      </c>
+      <c r="AC20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AD20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AE20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM20" t="str">
+        <v>167</v>
+      </c>
+      <c r="AN20" t="str">
+        <v>74</v>
+      </c>
+      <c r="AO20" t="str">
         <v>26.53</v>
       </c>
-      <c r="T20" t="str">
+      <c r="AP20" t="str">
         <v>3</v>
       </c>
-      <c r="U20" t="str">
+      <c r="AQ20" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS20" t="str">
         <v>3</v>
       </c>
-      <c r="V20" t="str">
+      <c r="AT20" t="str">
         <v>2</v>
       </c>
-      <c r="W20" t="str">
+      <c r="AU20" t="str">
         <v>2</v>
       </c>
-      <c r="X20" t="str">
+      <c r="AV20" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AX20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY20" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ20" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA20" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB20" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC20" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD20" t="str">
         <v>263</v>
       </c>
-      <c r="Y20" t="str">
+      <c r="BE20" t="str">
         <v>20.7</v>
       </c>
-      <c r="Z20" t="str">
+      <c r="BF20" t="str">
         <v>11.8</v>
       </c>
-      <c r="AA20" t="str">
+      <c r="BG20" t="str">
         <v>1037</v>
       </c>
-      <c r="AB20" t="str">
+      <c r="BH20" t="str">
+        <v>391</v>
+      </c>
+      <c r="BI20" t="str">
+        <v>133</v>
+      </c>
+      <c r="BJ20" t="str">
         <v>2414.0</v>
       </c>
-      <c r="AC20" t="str">
+      <c r="BK20" t="str">
         <v>5.58</v>
       </c>
-      <c r="AE20" t="str">
+      <c r="BM20" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN20" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO20" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP20" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ20" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR20" t="str">
         <v>胰头癌、高血压3级、2型糖尿病、十二指肠球部溃疡、浅表性胃炎</v>
       </c>
-      <c r="AF20" t="str">
+      <c r="BS20" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT20" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BV20" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW20" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX20" t="str">
         <v>5</v>
       </c>
-      <c r="AG20" t="str">
+      <c r="BY20" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH20" t="str">
+      <c r="BZ20" t="str">
         <v>2017-01-17</v>
       </c>
-      <c r="AI20" t="str">
+      <c r="CA20" t="str">
         <v>305</v>
       </c>
-      <c r="AJ20" t="str">
+      <c r="CB20" t="str">
         <v>400</v>
       </c>
-      <c r="AK20" t="str">
+      <c r="CC20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CD20" t="str">
         <v>6</v>
       </c>
-      <c r="AL20" t="str">
+      <c r="CE20" t="str">
         <v>390</v>
       </c>
-      <c r="AM20" t="str">
+      <c r="CF20" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH20" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI20" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK20" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL20" t="str">
         <v>8</v>
       </c>
-      <c r="AN20" t="str">
+      <c r="CM20" t="str">
         <v>4</v>
       </c>
-      <c r="AO20" t="str">
+      <c r="CN20" t="str">
         <v>5</v>
       </c>
-      <c r="AS20" t="str">
+      <c r="CO20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR20" t="str">
+        <v>是</v>
+      </c>
+      <c r="CS20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW20" t="str">
+        <v>Ⅰ级</v>
+      </c>
+      <c r="CX20" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ20" t="str">
+        <v>是</v>
+      </c>
+      <c r="DA20" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF20" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG20" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH20" t="str">
+        <v>是</v>
+      </c>
+      <c r="DI20" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT20" t="str">
+      <c r="DJ20" t="str">
+        <v>低</v>
+      </c>
+      <c r="DK20" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL20" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM20" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN20" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO20" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP20" t="str">
         <v>1</v>
       </c>
-      <c r="AU20" t="str">
+      <c r="DQ20" t="str">
         <v>5</v>
       </c>
-      <c r="AV20" t="str">
+      <c r="DR20" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS20" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT20" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX20" t="str">
         <v>4616</v>
       </c>
-      <c r="AW20" t="str">
+      <c r="DY20" t="str">
         <v>112131.37</v>
       </c>
-      <c r="AY20" t="str">
-        <v>391</v>
-      </c>
-      <c r="AZ20" t="str">
-        <v>133</v>
-      </c>
-      <c r="BA20" t="str">
-        <v>167</v>
-      </c>
-      <c r="BB20" t="str">
-        <v>74</v>
-      </c>
-      <c r="BC20" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD20" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE20" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF20" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG20" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH20" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI20" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ20" t="str">
-        <v>Ⅰ级</v>
-      </c>
-      <c r="BK20" t="str">
-        <v>低</v>
-      </c>
-      <c r="BL20" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM20" t="str">
+      <c r="DZ20" t="str">
+        <v>否</v>
+      </c>
+      <c r="EA20" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB20" t="str">
+        <v>否</v>
+      </c>
+      <c r="EM20" t="str">
+        <v>240</v>
+      </c>
+      <c r="ES20" t="str">
+        <v>食管炎、十二指肠球部溃疡</v>
+      </c>
+      <c r="EV20" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY20" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN20" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BZ20" t="str">
-        <v>240</v>
-      </c>
-      <c r="CF20" t="str">
-        <v>食管炎、十二指肠球部溃疡</v>
-      </c>
-      <c r="CI20" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CO20" t="str">
+      <c r="EZ20" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP20" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="CR20" t="str">
+      <c r="FE20" t="str">
         <v>阴性</v>
       </c>
     </row>
@@ -4733,169 +8414,355 @@
       <c r="O21" t="str">
         <v>0.25</v>
       </c>
+      <c r="P21" t="str">
+        <v>否</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>是</v>
+      </c>
+      <c r="R21" t="str">
+        <v>否</v>
+      </c>
       <c r="S21" t="str">
+        <v>否</v>
+      </c>
+      <c r="T21" t="str">
+        <v>是</v>
+      </c>
+      <c r="U21" t="str">
+        <v>否</v>
+      </c>
+      <c r="V21" t="str">
+        <v>否</v>
+      </c>
+      <c r="W21" t="str">
+        <v>否</v>
+      </c>
+      <c r="X21" t="str">
+        <v>否</v>
+      </c>
+      <c r="Y21" t="str">
+        <v>否</v>
+      </c>
+      <c r="Z21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AA21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AB21" t="str">
+        <v>无</v>
+      </c>
+      <c r="AC21" t="str">
+        <v>有</v>
+      </c>
+      <c r="AD21" t="str">
+        <v>有</v>
+      </c>
+      <c r="AE21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AG21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AJ21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AK21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AL21" t="str">
+        <v>无</v>
+      </c>
+      <c r="AM21" t="str">
+        <v>173</v>
+      </c>
+      <c r="AN21" t="str">
+        <v>63</v>
+      </c>
+      <c r="AO21" t="str">
         <v>21.05</v>
       </c>
-      <c r="T21" t="str">
+      <c r="AP21" t="str">
         <v>1</v>
       </c>
-      <c r="U21" t="str">
+      <c r="AQ21" t="str">
+        <v>否</v>
+      </c>
+      <c r="AR21" t="str">
+        <v>无</v>
+      </c>
+      <c r="AS21" t="str">
         <v>3</v>
       </c>
-      <c r="V21" t="str">
+      <c r="AT21" t="str">
         <v>2</v>
       </c>
-      <c r="W21" t="str">
+      <c r="AU21" t="str">
         <v>1.6</v>
       </c>
-      <c r="X21" t="str">
+      <c r="AV21" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="AW21" t="str">
+        <v>有</v>
+      </c>
+      <c r="AX21" t="str">
+        <v>无</v>
+      </c>
+      <c r="AY21" t="str">
+        <v>无</v>
+      </c>
+      <c r="AZ21" t="str">
+        <v>无</v>
+      </c>
+      <c r="BA21" t="str">
+        <v>否</v>
+      </c>
+      <c r="BB21" t="str">
+        <v>恶性</v>
+      </c>
+      <c r="BC21" t="str">
+        <v>无</v>
+      </c>
+      <c r="BD21" t="str">
         <v>456</v>
       </c>
-      <c r="Y21" t="str">
+      <c r="BE21" t="str">
         <v>179.7</v>
       </c>
-      <c r="Z21" t="str">
+      <c r="BF21" t="str">
         <v>130.0</v>
       </c>
-      <c r="AA21" t="str">
+      <c r="BG21" t="str">
         <v>407</v>
       </c>
-      <c r="AB21" t="str">
+      <c r="BH21" t="str">
+        <v>377</v>
+      </c>
+      <c r="BI21" t="str">
+        <v>263</v>
+      </c>
+      <c r="BJ21" t="str">
         <v>84.3</v>
       </c>
-      <c r="AC21" t="str">
+      <c r="BK21" t="str">
         <v>1.29</v>
       </c>
-      <c r="AD21" t="str">
+      <c r="BL21" t="str">
         <v>16.39</v>
       </c>
-      <c r="AE21" t="str">
+      <c r="BM21" t="str">
+        <v>否</v>
+      </c>
+      <c r="BN21" t="str">
+        <v>否</v>
+      </c>
+      <c r="BO21" t="str">
+        <v>否</v>
+      </c>
+      <c r="BP21" t="str">
+        <v>否</v>
+      </c>
+      <c r="BQ21" t="str">
+        <v>可切除</v>
+      </c>
+      <c r="BR21" t="str">
         <v>腔隙性脑梗死</v>
       </c>
-      <c r="AF21" t="str">
+      <c r="BS21" t="str">
+        <v>胰十二指肠切除术</v>
+      </c>
+      <c r="BT21" t="str">
+        <v>完全开腹</v>
+      </c>
+      <c r="BU21" t="str">
+        <v>否</v>
+      </c>
+      <c r="BW21" t="str">
+        <v>是</v>
+      </c>
+      <c r="BX21" t="str">
         <v>3</v>
       </c>
-      <c r="AG21" t="str">
+      <c r="BY21" t="str">
         <v>Prolene线缝合</v>
       </c>
-      <c r="AH21" t="str">
+      <c r="BZ21" t="str">
         <v>2017-05-17</v>
       </c>
-      <c r="AI21" t="str">
+      <c r="CA21" t="str">
         <v>250</v>
       </c>
-      <c r="AJ21" t="str">
+      <c r="CB21" t="str">
         <v>300</v>
       </c>
-      <c r="AM21" t="str">
+      <c r="CC21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CF21" t="str">
+        <v>胰头</v>
+      </c>
+      <c r="CG21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CH21" t="str">
+        <v>静脉全麻</v>
+      </c>
+      <c r="CI21" t="str">
+        <v>是</v>
+      </c>
+      <c r="CJ21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CK21" t="str">
+        <v>是</v>
+      </c>
+      <c r="CL21" t="str">
         <v>8</v>
       </c>
-      <c r="AN21" t="str">
+      <c r="CM21" t="str">
         <v>2</v>
       </c>
-      <c r="AO21" t="str">
+      <c r="CN21" t="str">
         <v>2</v>
       </c>
-      <c r="AS21" t="str">
+      <c r="CO21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CP21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CQ21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CR21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CS21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CT21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CU21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CV21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CW21" t="str">
+        <v>Ⅱ级</v>
+      </c>
+      <c r="CX21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CY21" t="str">
+        <v>否</v>
+      </c>
+      <c r="CZ21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DA21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DF21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DG21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DH21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DI21" t="str">
         <v>导管腺癌</v>
       </c>
-      <c r="AT21" t="str">
+      <c r="DJ21" t="str">
+        <v>低</v>
+      </c>
+      <c r="DK21" t="str">
+        <v>是</v>
+      </c>
+      <c r="DL21" t="str">
+        <v>是</v>
+      </c>
+      <c r="DM21" t="str">
+        <v>是</v>
+      </c>
+      <c r="DN21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DO21" t="str">
+        <v>3</v>
+      </c>
+      <c r="DP21" t="str">
         <v>1</v>
       </c>
-      <c r="AU21" t="str">
+      <c r="DQ21" t="str">
         <v>8</v>
       </c>
-      <c r="AV21" t="str">
+      <c r="DR21" t="str">
+        <v>否</v>
+      </c>
+      <c r="DS21" t="str">
+        <v>阴性</v>
+      </c>
+      <c r="DT21" t="str">
+        <v>R0</v>
+      </c>
+      <c r="DX21" t="str">
         <v>8170.0</v>
       </c>
-      <c r="AW21" t="str">
+      <c r="DY21" t="str">
         <v>75308.77</v>
       </c>
-      <c r="AX21" t="str">
+      <c r="DZ21" t="str">
+        <v>是</v>
+      </c>
+      <c r="EA21" t="str">
+        <v>否</v>
+      </c>
+      <c r="EB21" t="str">
+        <v>否</v>
+      </c>
+      <c r="EC21" t="str">
         <v>不详</v>
       </c>
-      <c r="AY21" t="str">
-        <v>377</v>
-      </c>
-      <c r="AZ21" t="str">
-        <v>263</v>
-      </c>
-      <c r="BA21" t="str">
-        <v>173</v>
-      </c>
-      <c r="BB21" t="str">
-        <v>63</v>
-      </c>
-      <c r="BC21" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BD21" t="str">
-        <v>恶性</v>
-      </c>
-      <c r="BE21" t="str">
-        <v>可切除</v>
-      </c>
-      <c r="BF21" t="str">
-        <v>胰十二指肠切除术</v>
-      </c>
-      <c r="BG21" t="str">
-        <v>完全开腹</v>
-      </c>
-      <c r="BH21" t="str">
-        <v>胰头</v>
-      </c>
-      <c r="BI21" t="str">
-        <v>静脉全麻</v>
-      </c>
-      <c r="BJ21" t="str">
-        <v>Ⅱ级</v>
-      </c>
-      <c r="BK21" t="str">
-        <v>低</v>
-      </c>
-      <c r="BL21" t="str">
-        <v>3</v>
-      </c>
-      <c r="BM21" t="str">
+      <c r="EH21" t="str">
+        <v>不详</v>
+      </c>
+      <c r="EI21" t="str">
+        <v>不详</v>
+      </c>
+      <c r="EJ21" t="str">
+        <v>不详</v>
+      </c>
+      <c r="EK21" t="str">
+        <v>4</v>
+      </c>
+      <c r="EL21" t="str">
+        <v>静脉化疗</v>
+      </c>
+      <c r="EV21" t="str">
+        <v>端侧吻合</v>
+      </c>
+      <c r="EY21" t="str">
         <v>阴性</v>
       </c>
-      <c r="BN21" t="str">
-        <v>R0</v>
-      </c>
-      <c r="BS21" t="str">
-        <v>不详</v>
-      </c>
-      <c r="BT21" t="str">
-        <v>不详</v>
-      </c>
-      <c r="BU21" t="str">
-        <v>不详</v>
-      </c>
-      <c r="BV21" t="str">
-        <v>4</v>
-      </c>
-      <c r="BY21" t="str">
-        <v>静脉化疗</v>
-      </c>
-      <c r="CI21" t="str">
-        <v>端侧吻合</v>
-      </c>
-      <c r="CO21" t="str">
+      <c r="EZ21" t="str">
         <v>阴性</v>
       </c>
-      <c r="CP21" t="str">
+      <c r="FE21" t="str">
         <v>阴性</v>
       </c>
-      <c r="CR21" t="str">
-        <v>阴性</v>
-      </c>
-      <c r="DD21" t="str">
+      <c r="FU21" t="str">
         <v>0.59</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:DS21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:GI21"/>
   </ignoredErrors>
 </worksheet>
 </file>
